--- a/Code/Results/Cases/Case_3_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_bus/vm_pu.xlsx
@@ -421,28 +421,28 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9856837039495148</v>
+        <v>0.9856837039495154</v>
       </c>
       <c r="D2">
         <v>1.007009762909908</v>
       </c>
       <c r="E2">
-        <v>0.9940375525669085</v>
+        <v>0.994037552566909</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040073811927026</v>
+        <v>1.040073811927027</v>
       </c>
       <c r="J2">
-        <v>1.008301210472562</v>
+        <v>1.008301210472563</v>
       </c>
       <c r="K2">
         <v>1.018372296844543</v>
       </c>
       <c r="L2">
-        <v>1.005580583538543</v>
+        <v>1.005580583538544</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,28 +453,28 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9922347585240079</v>
+        <v>0.9922347585240086</v>
       </c>
       <c r="D3">
-        <v>1.011979159968621</v>
+        <v>1.011979159968622</v>
       </c>
       <c r="E3">
-        <v>0.9993883345810496</v>
+        <v>0.9993883345810505</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042094298968809</v>
+        <v>1.04209429896881</v>
       </c>
       <c r="J3">
-        <v>1.012939373814084</v>
+        <v>1.012939373814085</v>
       </c>
       <c r="K3">
         <v>1.022461025739131</v>
       </c>
       <c r="L3">
-        <v>1.010029047767661</v>
+        <v>1.010029047767662</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -485,13 +485,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9963524735888686</v>
+        <v>0.9963524735888684</v>
       </c>
       <c r="D4">
         <v>1.015102481278021</v>
       </c>
       <c r="E4">
-        <v>1.002758621191988</v>
+        <v>1.002758621191987</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -517,13 +517,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9980559839892261</v>
+        <v>0.9980559839892267</v>
       </c>
       <c r="D5">
-        <v>1.016394443638969</v>
+        <v>1.01639444363897</v>
       </c>
       <c r="E5">
-        <v>1.004154519216892</v>
+        <v>1.004154519216893</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -535,10 +535,10 @@
         <v>1.017052845164105</v>
       </c>
       <c r="K5">
-        <v>1.026079205633437</v>
+        <v>1.026079205633438</v>
       </c>
       <c r="L5">
-        <v>1.013979711554169</v>
+        <v>1.01397971155417</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -552,7 +552,7 @@
         <v>0.9983404339056693</v>
       </c>
       <c r="D6">
-        <v>1.016610161066142</v>
+        <v>1.016610161066143</v>
       </c>
       <c r="E6">
         <v>1.004387696306577</v>
@@ -581,28 +581,28 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9963753424989545</v>
+        <v>0.9963753424989563</v>
       </c>
       <c r="D7">
-        <v>1.015119826119901</v>
+        <v>1.015119826119902</v>
       </c>
       <c r="E7">
-        <v>1.002777354303986</v>
+        <v>1.002777354303987</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043354086956471</v>
+        <v>1.043354086956472</v>
       </c>
       <c r="J7">
-        <v>1.015866099226343</v>
+        <v>1.015866099226345</v>
       </c>
       <c r="K7">
-        <v>1.02503618845943</v>
+        <v>1.025036188459432</v>
       </c>
       <c r="L7">
-        <v>1.012839384046943</v>
+        <v>1.012839384046945</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -613,13 +613,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9879236805057867</v>
+        <v>0.9879236805057864</v>
       </c>
       <c r="D8">
         <v>1.00870890911957</v>
       </c>
       <c r="E8">
-        <v>0.9958655937799268</v>
+        <v>0.9958655937799265</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -645,28 +645,28 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.972030446228109</v>
+        <v>0.9720304462281083</v>
       </c>
       <c r="D9">
-        <v>0.9966569244571181</v>
+        <v>0.9966569244571173</v>
       </c>
       <c r="E9">
-        <v>0.982929149162015</v>
+        <v>0.9829291491620143</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035770716230411</v>
+        <v>1.03577071623041</v>
       </c>
       <c r="J9">
-        <v>0.9986110701944038</v>
+        <v>0.998611070194403</v>
       </c>
       <c r="K9">
-        <v>1.009804474595654</v>
+        <v>1.009804474595653</v>
       </c>
       <c r="L9">
-        <v>0.996305397173198</v>
+        <v>0.9963053971731971</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -677,10 +677,10 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9606507685282503</v>
+        <v>0.9606507685282502</v>
       </c>
       <c r="D10">
-        <v>0.9880386457862368</v>
+        <v>0.9880386457862367</v>
       </c>
       <c r="E10">
         <v>0.9737147872945574</v>
@@ -692,13 +692,13 @@
         <v>1.032106303591031</v>
       </c>
       <c r="J10">
-        <v>0.9905175100880335</v>
+        <v>0.9905175100880336</v>
       </c>
       <c r="K10">
         <v>1.002627277600602</v>
       </c>
       <c r="L10">
-        <v>0.9885754205229238</v>
+        <v>0.9885754205229236</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -709,10 +709,10 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9555084037580552</v>
+        <v>0.9555084037580555</v>
       </c>
       <c r="D11">
-        <v>0.9841488939477475</v>
+        <v>0.9841488939477477</v>
       </c>
       <c r="E11">
         <v>0.9695640617458141</v>
@@ -727,10 +727,10 @@
         <v>0.9868568147661385</v>
       </c>
       <c r="K11">
-        <v>0.9993760605356041</v>
+        <v>0.999376060535604</v>
       </c>
       <c r="L11">
-        <v>0.9850837231630882</v>
+        <v>0.9850837231630881</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -741,10 +741,10 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9535632065977889</v>
+        <v>0.9535632065977885</v>
       </c>
       <c r="D12">
-        <v>0.9826784395968357</v>
+        <v>0.9826784395968353</v>
       </c>
       <c r="E12">
         <v>0.9679961091449212</v>
@@ -756,13 +756,13 @@
         <v>1.029794965234695</v>
       </c>
       <c r="J12">
-        <v>0.9854717099218102</v>
+        <v>0.98547170992181</v>
       </c>
       <c r="K12">
-        <v>0.9981451914398158</v>
+        <v>0.9981451914398157</v>
       </c>
       <c r="L12">
-        <v>0.9837632575769627</v>
+        <v>0.9837632575769626</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -773,13 +773,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9539820948848952</v>
+        <v>0.9539820948848954</v>
       </c>
       <c r="D13">
-        <v>0.9829950495439741</v>
+        <v>0.9829950495439744</v>
       </c>
       <c r="E13">
-        <v>0.9683336604580051</v>
+        <v>0.9683336604580053</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -788,10 +788,10 @@
         <v>1.029932119327631</v>
       </c>
       <c r="J13">
-        <v>0.985770000207689</v>
+        <v>0.9857700002076892</v>
       </c>
       <c r="K13">
-        <v>0.9984102968900037</v>
+        <v>0.9984102968900038</v>
       </c>
       <c r="L13">
         <v>0.9840475958475802</v>
@@ -805,13 +805,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9553483465094411</v>
+        <v>0.9553483465094404</v>
       </c>
       <c r="D14">
-        <v>0.9840278802508478</v>
+        <v>0.984027880250847</v>
       </c>
       <c r="E14">
-        <v>0.9694350010699765</v>
+        <v>0.9694350010699758</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -820,13 +820,13 @@
         <v>1.030378999881373</v>
       </c>
       <c r="J14">
-        <v>0.9867428506997112</v>
+        <v>0.9867428506997106</v>
       </c>
       <c r="K14">
-        <v>0.9992748006049312</v>
+        <v>0.9992748006049305</v>
       </c>
       <c r="L14">
-        <v>0.9849750633339756</v>
+        <v>0.984975063333975</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -840,25 +840,25 @@
         <v>0.9561853991727515</v>
       </c>
       <c r="D15">
-        <v>0.9846607851192022</v>
+        <v>0.984660785119202</v>
       </c>
       <c r="E15">
-        <v>0.9701100386350735</v>
+        <v>0.9701100386350734</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03065243099881</v>
+        <v>1.030652430998809</v>
       </c>
       <c r="J15">
-        <v>0.9873388348723322</v>
+        <v>0.9873388348723324</v>
       </c>
       <c r="K15">
-        <v>0.9998043193667743</v>
+        <v>0.9998043193667739</v>
       </c>
       <c r="L15">
-        <v>0.9855433369040483</v>
+        <v>0.9855433369040485</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -869,28 +869,28 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9609872906177669</v>
+        <v>0.9609872906177678</v>
       </c>
       <c r="D16">
-        <v>0.9882933107075054</v>
+        <v>0.9882933107075058</v>
       </c>
       <c r="E16">
-        <v>0.9739867010326566</v>
+        <v>0.9739867010326573</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032215532590689</v>
+        <v>1.03221553259069</v>
       </c>
       <c r="J16">
-        <v>0.9907570114842413</v>
+        <v>0.990757011484242</v>
       </c>
       <c r="K16">
-        <v>1.002839889671728</v>
+        <v>1.002839889671729</v>
       </c>
       <c r="L16">
-        <v>0.9888039603351885</v>
+        <v>0.9888039603351894</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -901,13 +901,13 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9639399773194686</v>
+        <v>0.963939977319469</v>
       </c>
       <c r="D17">
-        <v>0.9905283328037522</v>
+        <v>0.9905283328037526</v>
       </c>
       <c r="E17">
-        <v>0.9763740092965182</v>
+        <v>0.9763740092965184</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -916,13 +916,13 @@
         <v>1.033171780394192</v>
       </c>
       <c r="J17">
-        <v>0.9928580675096239</v>
+        <v>0.9928580675096245</v>
       </c>
       <c r="K17">
         <v>1.004704498114373</v>
       </c>
       <c r="L17">
-        <v>0.9908093693143324</v>
+        <v>0.9908093693143327</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -936,25 +936,25 @@
         <v>0.9656417023910038</v>
       </c>
       <c r="D18">
-        <v>0.9918168793839482</v>
+        <v>0.9918168793839484</v>
       </c>
       <c r="E18">
-        <v>0.9777511149351801</v>
+        <v>0.9777511149351804</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033721092065576</v>
+        <v>1.033721092065577</v>
       </c>
       <c r="J18">
-        <v>0.9940686533393988</v>
+        <v>0.9940686533393989</v>
       </c>
       <c r="K18">
         <v>1.005778375142462</v>
       </c>
       <c r="L18">
-        <v>0.9919652721125374</v>
+        <v>0.9919652721125378</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -965,28 +965,28 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9662185448725719</v>
+        <v>0.9662185448725742</v>
       </c>
       <c r="D19">
-        <v>0.9922537325563779</v>
+        <v>0.9922537325563798</v>
       </c>
       <c r="E19">
-        <v>0.9782181228930842</v>
+        <v>0.9782181228930861</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033906985508704</v>
+        <v>1.033906985508706</v>
       </c>
       <c r="J19">
-        <v>0.9944789545803584</v>
+        <v>0.9944789545803606</v>
       </c>
       <c r="K19">
-        <v>1.006142260386038</v>
+        <v>1.006142260386041</v>
       </c>
       <c r="L19">
-        <v>0.992357111845112</v>
+        <v>0.992357111845114</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -997,13 +997,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9636253244371671</v>
+        <v>0.963625324437167</v>
       </c>
       <c r="D20">
         <v>0.9902901113473248</v>
       </c>
       <c r="E20">
-        <v>0.9761194774721634</v>
+        <v>0.976119477472163</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1012,13 +1012,13 @@
         <v>1.033070064457458</v>
       </c>
       <c r="J20">
-        <v>0.9926342008493249</v>
+        <v>0.9926342008493247</v>
       </c>
       <c r="K20">
         <v>1.004505873607814</v>
       </c>
       <c r="L20">
-        <v>0.9905956493712366</v>
+        <v>0.9905956493712365</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1029,13 +1029,13 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9549470124842769</v>
+        <v>0.9549470124842773</v>
       </c>
       <c r="D21">
-        <v>0.9837244610967933</v>
+        <v>0.983724461096793</v>
       </c>
       <c r="E21">
-        <v>0.9691114240725233</v>
+        <v>0.9691114240725234</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1044,13 +1044,13 @@
         <v>1.030247803706797</v>
       </c>
       <c r="J21">
-        <v>0.9864570869379031</v>
+        <v>0.9864570869379032</v>
       </c>
       <c r="K21">
-        <v>0.999020881267811</v>
+        <v>0.9990208812678107</v>
       </c>
       <c r="L21">
-        <v>0.9847026111157415</v>
+        <v>0.9847026111157419</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1061,13 +1061,13 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9492859208966807</v>
+        <v>0.949285920896681</v>
       </c>
       <c r="D22">
-        <v>0.9794469989427029</v>
+        <v>0.9794469989427032</v>
       </c>
       <c r="E22">
-        <v>0.9645524825936418</v>
+        <v>0.9645524825936415</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1076,13 +1076,13 @@
         <v>1.028390816871871</v>
       </c>
       <c r="J22">
-        <v>0.9824254533914759</v>
+        <v>0.982425453391476</v>
       </c>
       <c r="K22">
-        <v>0.995436914196997</v>
+        <v>0.9954369141969973</v>
       </c>
       <c r="L22">
-        <v>0.9808604585684159</v>
+        <v>0.9808604585684155</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1093,13 +1093,13 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9523074049041037</v>
+        <v>0.9523074049041048</v>
       </c>
       <c r="D23">
-        <v>0.9817294134365453</v>
+        <v>0.9817294134365467</v>
       </c>
       <c r="E23">
-        <v>0.9669844775861477</v>
+        <v>0.9669844775861487</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1108,13 +1108,13 @@
         <v>1.029383394331589</v>
       </c>
       <c r="J23">
-        <v>0.9845774081138852</v>
+        <v>0.9845774081138864</v>
       </c>
       <c r="K23">
-        <v>0.9973502823992217</v>
+        <v>0.997350282399223</v>
       </c>
       <c r="L23">
-        <v>0.9829108880876556</v>
+        <v>0.9829108880876566</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1125,13 +1125,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.963767565757364</v>
+        <v>0.9637675657573637</v>
       </c>
       <c r="D24">
-        <v>0.9903977999051476</v>
+        <v>0.9903977999051474</v>
       </c>
       <c r="E24">
-        <v>0.9762345367983237</v>
+        <v>0.9762345367983234</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1140,13 +1140,13 @@
         <v>1.033116051561247</v>
       </c>
       <c r="J24">
-        <v>0.9927354025373968</v>
+        <v>0.9927354025373966</v>
       </c>
       <c r="K24">
         <v>1.004595665740047</v>
       </c>
       <c r="L24">
-        <v>0.9906922627854301</v>
+        <v>0.9906922627854299</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1157,28 +1157,28 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9762685500153777</v>
+        <v>0.9762685500153756</v>
       </c>
       <c r="D25">
-        <v>0.9998694826677001</v>
+        <v>0.9998694826676977</v>
       </c>
       <c r="E25">
-        <v>0.9863710858977842</v>
+        <v>0.9863710858977821</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037118451813497</v>
+        <v>1.037118451813495</v>
       </c>
       <c r="J25">
-        <v>1.001621844015761</v>
+        <v>1.001621844015759</v>
       </c>
       <c r="K25">
-        <v>1.012469825087532</v>
+        <v>1.012469825087529</v>
       </c>
       <c r="L25">
-        <v>0.9991847230162019</v>
+        <v>0.9991847230161996</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_bus/vm_pu.xlsx
@@ -421,28 +421,28 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9856837039495154</v>
+        <v>0.9856837039495148</v>
       </c>
       <c r="D2">
         <v>1.007009762909908</v>
       </c>
       <c r="E2">
-        <v>0.994037552566909</v>
+        <v>0.9940375525669085</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040073811927027</v>
+        <v>1.040073811927026</v>
       </c>
       <c r="J2">
-        <v>1.008301210472563</v>
+        <v>1.008301210472562</v>
       </c>
       <c r="K2">
         <v>1.018372296844543</v>
       </c>
       <c r="L2">
-        <v>1.005580583538544</v>
+        <v>1.005580583538543</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,28 +453,28 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9922347585240086</v>
+        <v>0.9922347585240079</v>
       </c>
       <c r="D3">
-        <v>1.011979159968622</v>
+        <v>1.011979159968621</v>
       </c>
       <c r="E3">
-        <v>0.9993883345810505</v>
+        <v>0.9993883345810496</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04209429896881</v>
+        <v>1.042094298968809</v>
       </c>
       <c r="J3">
-        <v>1.012939373814085</v>
+        <v>1.012939373814084</v>
       </c>
       <c r="K3">
         <v>1.022461025739131</v>
       </c>
       <c r="L3">
-        <v>1.010029047767662</v>
+        <v>1.010029047767661</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -485,13 +485,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9963524735888684</v>
+        <v>0.9963524735888686</v>
       </c>
       <c r="D4">
         <v>1.015102481278021</v>
       </c>
       <c r="E4">
-        <v>1.002758621191987</v>
+        <v>1.002758621191988</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -517,13 +517,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9980559839892267</v>
+        <v>0.9980559839892261</v>
       </c>
       <c r="D5">
-        <v>1.01639444363897</v>
+        <v>1.016394443638969</v>
       </c>
       <c r="E5">
-        <v>1.004154519216893</v>
+        <v>1.004154519216892</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -535,10 +535,10 @@
         <v>1.017052845164105</v>
       </c>
       <c r="K5">
-        <v>1.026079205633438</v>
+        <v>1.026079205633437</v>
       </c>
       <c r="L5">
-        <v>1.01397971155417</v>
+        <v>1.013979711554169</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -552,7 +552,7 @@
         <v>0.9983404339056693</v>
       </c>
       <c r="D6">
-        <v>1.016610161066143</v>
+        <v>1.016610161066142</v>
       </c>
       <c r="E6">
         <v>1.004387696306577</v>
@@ -581,28 +581,28 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9963753424989563</v>
+        <v>0.9963753424989545</v>
       </c>
       <c r="D7">
-        <v>1.015119826119902</v>
+        <v>1.015119826119901</v>
       </c>
       <c r="E7">
-        <v>1.002777354303987</v>
+        <v>1.002777354303986</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043354086956472</v>
+        <v>1.043354086956471</v>
       </c>
       <c r="J7">
-        <v>1.015866099226345</v>
+        <v>1.015866099226343</v>
       </c>
       <c r="K7">
-        <v>1.025036188459432</v>
+        <v>1.02503618845943</v>
       </c>
       <c r="L7">
-        <v>1.012839384046945</v>
+        <v>1.012839384046943</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -613,13 +613,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9879236805057864</v>
+        <v>0.9879236805057867</v>
       </c>
       <c r="D8">
         <v>1.00870890911957</v>
       </c>
       <c r="E8">
-        <v>0.9958655937799265</v>
+        <v>0.9958655937799268</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -645,28 +645,28 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9720304462281083</v>
+        <v>0.972030446228109</v>
       </c>
       <c r="D9">
-        <v>0.9966569244571173</v>
+        <v>0.9966569244571181</v>
       </c>
       <c r="E9">
-        <v>0.9829291491620143</v>
+        <v>0.982929149162015</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03577071623041</v>
+        <v>1.035770716230411</v>
       </c>
       <c r="J9">
-        <v>0.998611070194403</v>
+        <v>0.9986110701944038</v>
       </c>
       <c r="K9">
-        <v>1.009804474595653</v>
+        <v>1.009804474595654</v>
       </c>
       <c r="L9">
-        <v>0.9963053971731971</v>
+        <v>0.996305397173198</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -677,10 +677,10 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9606507685282502</v>
+        <v>0.9606507685282503</v>
       </c>
       <c r="D10">
-        <v>0.9880386457862367</v>
+        <v>0.9880386457862368</v>
       </c>
       <c r="E10">
         <v>0.9737147872945574</v>
@@ -692,13 +692,13 @@
         <v>1.032106303591031</v>
       </c>
       <c r="J10">
-        <v>0.9905175100880336</v>
+        <v>0.9905175100880335</v>
       </c>
       <c r="K10">
         <v>1.002627277600602</v>
       </c>
       <c r="L10">
-        <v>0.9885754205229236</v>
+        <v>0.9885754205229238</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -709,10 +709,10 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9555084037580555</v>
+        <v>0.9555084037580552</v>
       </c>
       <c r="D11">
-        <v>0.9841488939477477</v>
+        <v>0.9841488939477475</v>
       </c>
       <c r="E11">
         <v>0.9695640617458141</v>
@@ -727,10 +727,10 @@
         <v>0.9868568147661385</v>
       </c>
       <c r="K11">
-        <v>0.999376060535604</v>
+        <v>0.9993760605356041</v>
       </c>
       <c r="L11">
-        <v>0.9850837231630881</v>
+        <v>0.9850837231630882</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -741,10 +741,10 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9535632065977885</v>
+        <v>0.9535632065977889</v>
       </c>
       <c r="D12">
-        <v>0.9826784395968353</v>
+        <v>0.9826784395968357</v>
       </c>
       <c r="E12">
         <v>0.9679961091449212</v>
@@ -756,13 +756,13 @@
         <v>1.029794965234695</v>
       </c>
       <c r="J12">
-        <v>0.98547170992181</v>
+        <v>0.9854717099218102</v>
       </c>
       <c r="K12">
-        <v>0.9981451914398157</v>
+        <v>0.9981451914398158</v>
       </c>
       <c r="L12">
-        <v>0.9837632575769626</v>
+        <v>0.9837632575769627</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -773,13 +773,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9539820948848954</v>
+        <v>0.9539820948848952</v>
       </c>
       <c r="D13">
-        <v>0.9829950495439744</v>
+        <v>0.9829950495439741</v>
       </c>
       <c r="E13">
-        <v>0.9683336604580053</v>
+        <v>0.9683336604580051</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -788,10 +788,10 @@
         <v>1.029932119327631</v>
       </c>
       <c r="J13">
-        <v>0.9857700002076892</v>
+        <v>0.985770000207689</v>
       </c>
       <c r="K13">
-        <v>0.9984102968900038</v>
+        <v>0.9984102968900037</v>
       </c>
       <c r="L13">
         <v>0.9840475958475802</v>
@@ -805,13 +805,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9553483465094404</v>
+        <v>0.9553483465094411</v>
       </c>
       <c r="D14">
-        <v>0.984027880250847</v>
+        <v>0.9840278802508478</v>
       </c>
       <c r="E14">
-        <v>0.9694350010699758</v>
+        <v>0.9694350010699765</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -820,13 +820,13 @@
         <v>1.030378999881373</v>
       </c>
       <c r="J14">
-        <v>0.9867428506997106</v>
+        <v>0.9867428506997112</v>
       </c>
       <c r="K14">
-        <v>0.9992748006049305</v>
+        <v>0.9992748006049312</v>
       </c>
       <c r="L14">
-        <v>0.984975063333975</v>
+        <v>0.9849750633339756</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -840,25 +840,25 @@
         <v>0.9561853991727515</v>
       </c>
       <c r="D15">
-        <v>0.984660785119202</v>
+        <v>0.9846607851192022</v>
       </c>
       <c r="E15">
-        <v>0.9701100386350734</v>
+        <v>0.9701100386350735</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030652430998809</v>
+        <v>1.03065243099881</v>
       </c>
       <c r="J15">
-        <v>0.9873388348723324</v>
+        <v>0.9873388348723322</v>
       </c>
       <c r="K15">
-        <v>0.9998043193667739</v>
+        <v>0.9998043193667743</v>
       </c>
       <c r="L15">
-        <v>0.9855433369040485</v>
+        <v>0.9855433369040483</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -869,28 +869,28 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9609872906177678</v>
+        <v>0.9609872906177669</v>
       </c>
       <c r="D16">
-        <v>0.9882933107075058</v>
+        <v>0.9882933107075054</v>
       </c>
       <c r="E16">
-        <v>0.9739867010326573</v>
+        <v>0.9739867010326566</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03221553259069</v>
+        <v>1.032215532590689</v>
       </c>
       <c r="J16">
-        <v>0.990757011484242</v>
+        <v>0.9907570114842413</v>
       </c>
       <c r="K16">
-        <v>1.002839889671729</v>
+        <v>1.002839889671728</v>
       </c>
       <c r="L16">
-        <v>0.9888039603351894</v>
+        <v>0.9888039603351885</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -901,13 +901,13 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.963939977319469</v>
+        <v>0.9639399773194686</v>
       </c>
       <c r="D17">
-        <v>0.9905283328037526</v>
+        <v>0.9905283328037522</v>
       </c>
       <c r="E17">
-        <v>0.9763740092965184</v>
+        <v>0.9763740092965182</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -916,13 +916,13 @@
         <v>1.033171780394192</v>
       </c>
       <c r="J17">
-        <v>0.9928580675096245</v>
+        <v>0.9928580675096239</v>
       </c>
       <c r="K17">
         <v>1.004704498114373</v>
       </c>
       <c r="L17">
-        <v>0.9908093693143327</v>
+        <v>0.9908093693143324</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -936,25 +936,25 @@
         <v>0.9656417023910038</v>
       </c>
       <c r="D18">
-        <v>0.9918168793839484</v>
+        <v>0.9918168793839482</v>
       </c>
       <c r="E18">
-        <v>0.9777511149351804</v>
+        <v>0.9777511149351801</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033721092065577</v>
+        <v>1.033721092065576</v>
       </c>
       <c r="J18">
-        <v>0.9940686533393989</v>
+        <v>0.9940686533393988</v>
       </c>
       <c r="K18">
         <v>1.005778375142462</v>
       </c>
       <c r="L18">
-        <v>0.9919652721125378</v>
+        <v>0.9919652721125374</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -965,28 +965,28 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9662185448725742</v>
+        <v>0.9662185448725719</v>
       </c>
       <c r="D19">
-        <v>0.9922537325563798</v>
+        <v>0.9922537325563779</v>
       </c>
       <c r="E19">
-        <v>0.9782181228930861</v>
+        <v>0.9782181228930842</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033906985508706</v>
+        <v>1.033906985508704</v>
       </c>
       <c r="J19">
-        <v>0.9944789545803606</v>
+        <v>0.9944789545803584</v>
       </c>
       <c r="K19">
-        <v>1.006142260386041</v>
+        <v>1.006142260386038</v>
       </c>
       <c r="L19">
-        <v>0.992357111845114</v>
+        <v>0.992357111845112</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -997,13 +997,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.963625324437167</v>
+        <v>0.9636253244371671</v>
       </c>
       <c r="D20">
         <v>0.9902901113473248</v>
       </c>
       <c r="E20">
-        <v>0.976119477472163</v>
+        <v>0.9761194774721634</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1012,13 +1012,13 @@
         <v>1.033070064457458</v>
       </c>
       <c r="J20">
-        <v>0.9926342008493247</v>
+        <v>0.9926342008493249</v>
       </c>
       <c r="K20">
         <v>1.004505873607814</v>
       </c>
       <c r="L20">
-        <v>0.9905956493712365</v>
+        <v>0.9905956493712366</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1029,13 +1029,13 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9549470124842773</v>
+        <v>0.9549470124842769</v>
       </c>
       <c r="D21">
-        <v>0.983724461096793</v>
+        <v>0.9837244610967933</v>
       </c>
       <c r="E21">
-        <v>0.9691114240725234</v>
+        <v>0.9691114240725233</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1044,13 +1044,13 @@
         <v>1.030247803706797</v>
       </c>
       <c r="J21">
-        <v>0.9864570869379032</v>
+        <v>0.9864570869379031</v>
       </c>
       <c r="K21">
-        <v>0.9990208812678107</v>
+        <v>0.999020881267811</v>
       </c>
       <c r="L21">
-        <v>0.9847026111157419</v>
+        <v>0.9847026111157415</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1061,13 +1061,13 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.949285920896681</v>
+        <v>0.9492859208966807</v>
       </c>
       <c r="D22">
-        <v>0.9794469989427032</v>
+        <v>0.9794469989427029</v>
       </c>
       <c r="E22">
-        <v>0.9645524825936415</v>
+        <v>0.9645524825936418</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1076,13 +1076,13 @@
         <v>1.028390816871871</v>
       </c>
       <c r="J22">
-        <v>0.982425453391476</v>
+        <v>0.9824254533914759</v>
       </c>
       <c r="K22">
-        <v>0.9954369141969973</v>
+        <v>0.995436914196997</v>
       </c>
       <c r="L22">
-        <v>0.9808604585684155</v>
+        <v>0.9808604585684159</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1093,13 +1093,13 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9523074049041048</v>
+        <v>0.9523074049041037</v>
       </c>
       <c r="D23">
-        <v>0.9817294134365467</v>
+        <v>0.9817294134365453</v>
       </c>
       <c r="E23">
-        <v>0.9669844775861487</v>
+        <v>0.9669844775861477</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1108,13 +1108,13 @@
         <v>1.029383394331589</v>
       </c>
       <c r="J23">
-        <v>0.9845774081138864</v>
+        <v>0.9845774081138852</v>
       </c>
       <c r="K23">
-        <v>0.997350282399223</v>
+        <v>0.9973502823992217</v>
       </c>
       <c r="L23">
-        <v>0.9829108880876566</v>
+        <v>0.9829108880876556</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1125,13 +1125,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9637675657573637</v>
+        <v>0.963767565757364</v>
       </c>
       <c r="D24">
-        <v>0.9903977999051474</v>
+        <v>0.9903977999051476</v>
       </c>
       <c r="E24">
-        <v>0.9762345367983234</v>
+        <v>0.9762345367983237</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1140,13 +1140,13 @@
         <v>1.033116051561247</v>
       </c>
       <c r="J24">
-        <v>0.9927354025373966</v>
+        <v>0.9927354025373968</v>
       </c>
       <c r="K24">
         <v>1.004595665740047</v>
       </c>
       <c r="L24">
-        <v>0.9906922627854299</v>
+        <v>0.9906922627854301</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1157,28 +1157,28 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9762685500153756</v>
+        <v>0.9762685500153777</v>
       </c>
       <c r="D25">
-        <v>0.9998694826676977</v>
+        <v>0.9998694826677001</v>
       </c>
       <c r="E25">
-        <v>0.9863710858977821</v>
+        <v>0.9863710858977842</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037118451813495</v>
+        <v>1.037118451813497</v>
       </c>
       <c r="J25">
-        <v>1.001621844015759</v>
+        <v>1.001621844015761</v>
       </c>
       <c r="K25">
-        <v>1.012469825087529</v>
+        <v>1.012469825087532</v>
       </c>
       <c r="L25">
-        <v>0.9991847230161996</v>
+        <v>0.9991847230162019</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_bus/vm_pu.xlsx
@@ -421,28 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9856837039495148</v>
+        <v>0.9856895999970999</v>
       </c>
       <c r="D2">
-        <v>1.007009762909908</v>
+        <v>1.007014457362785</v>
       </c>
       <c r="E2">
-        <v>0.9940375525669085</v>
+        <v>0.9940430415884142</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040073811927026</v>
+        <v>1.040076193907674</v>
       </c>
       <c r="J2">
-        <v>1.008301210472562</v>
+        <v>1.008306923020678</v>
       </c>
       <c r="K2">
-        <v>1.018372296844543</v>
+        <v>1.018376927038404</v>
       </c>
       <c r="L2">
-        <v>1.005580583538543</v>
+        <v>1.005585994925814</v>
+      </c>
+      <c r="N2">
+        <v>1.008012916801914</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,28 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9922347585240079</v>
+        <v>0.9922373333782152</v>
       </c>
       <c r="D3">
-        <v>1.011979159968621</v>
+        <v>1.011981213214233</v>
       </c>
       <c r="E3">
-        <v>0.9993883345810496</v>
+        <v>0.9993909181418766</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042094298968809</v>
+        <v>1.042095342015341</v>
       </c>
       <c r="J3">
-        <v>1.012939373814084</v>
+        <v>1.012941876967467</v>
       </c>
       <c r="K3">
-        <v>1.022461025739131</v>
+        <v>1.022463053482295</v>
       </c>
       <c r="L3">
-        <v>1.010029047767661</v>
+        <v>1.010031598220854</v>
+      </c>
+      <c r="N3">
+        <v>1.01115377364065</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -485,28 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9963524735888686</v>
+        <v>0.996352994892486</v>
       </c>
       <c r="D4">
-        <v>1.015102481278021</v>
+        <v>1.01510289736514</v>
       </c>
       <c r="E4">
-        <v>1.002758621191988</v>
+        <v>1.002759404458881</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043347168337219</v>
+        <v>1.043347379869635</v>
       </c>
       <c r="J4">
-        <v>1.015849945926899</v>
+        <v>1.015850453763012</v>
       </c>
       <c r="K4">
-        <v>1.025021986690603</v>
+        <v>1.025022397939014</v>
       </c>
       <c r="L4">
-        <v>1.012823865720487</v>
+        <v>1.012824639598466</v>
+      </c>
+      <c r="N4">
+        <v>1.013124258831097</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -517,28 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9980559839892261</v>
+        <v>0.9980556630057859</v>
       </c>
       <c r="D5">
-        <v>1.016394443638969</v>
+        <v>1.016394187343357</v>
       </c>
       <c r="E5">
-        <v>1.004154519216892</v>
+        <v>1.00415456328272</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043861295443458</v>
+        <v>1.043861165104969</v>
       </c>
       <c r="J5">
-        <v>1.017052845164105</v>
+        <v>1.017052532209236</v>
       </c>
       <c r="K5">
-        <v>1.026079205633437</v>
+        <v>1.026078952234693</v>
       </c>
       <c r="L5">
-        <v>1.013979711554169</v>
+        <v>1.013979755106804</v>
+      </c>
+      <c r="N5">
+        <v>1.013938511120847</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -549,28 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9983404339056693</v>
+        <v>0.9983399726817231</v>
       </c>
       <c r="D6">
-        <v>1.016610161066142</v>
+        <v>1.016609792769469</v>
       </c>
       <c r="E6">
-        <v>1.004387696306577</v>
+        <v>1.004387617252514</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043946895087723</v>
+        <v>1.043946707781317</v>
       </c>
       <c r="J6">
-        <v>1.017253630516237</v>
+        <v>1.017253180765601</v>
       </c>
       <c r="K6">
-        <v>1.026255603355508</v>
+        <v>1.026255239201596</v>
       </c>
       <c r="L6">
-        <v>1.014172689040233</v>
+        <v>1.014172610902344</v>
+      </c>
+      <c r="N6">
+        <v>1.014074417037359</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -581,28 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9963753424989545</v>
+        <v>0.9963758524675563</v>
       </c>
       <c r="D7">
-        <v>1.015119826119901</v>
+        <v>1.015120233161874</v>
       </c>
       <c r="E7">
-        <v>1.002777354303986</v>
+        <v>1.002778127626119</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043354086956471</v>
+        <v>1.043354293891356</v>
       </c>
       <c r="J7">
-        <v>1.015866099226343</v>
+        <v>1.015866596025921</v>
       </c>
       <c r="K7">
-        <v>1.02503618845943</v>
+        <v>1.025036590769667</v>
       </c>
       <c r="L7">
-        <v>1.012839384046943</v>
+        <v>1.012840148102912</v>
+      </c>
+      <c r="N7">
+        <v>1.01313519362078</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -613,28 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9879236805057867</v>
+        <v>0.987928433203021</v>
       </c>
       <c r="D8">
-        <v>1.00870890911957</v>
+        <v>1.008712695236719</v>
       </c>
       <c r="E8">
-        <v>0.9958655937799268</v>
+        <v>0.995870083459712</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04076823056649</v>
+        <v>1.040770152416692</v>
       </c>
       <c r="J8">
-        <v>1.009888086449399</v>
+        <v>1.009892696603368</v>
       </c>
       <c r="K8">
-        <v>1.019772190915076</v>
+        <v>1.019775926852416</v>
       </c>
       <c r="L8">
-        <v>1.007101861011647</v>
+        <v>1.007106289238646</v>
+      </c>
+      <c r="N8">
+        <v>1.009087611995076</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -645,28 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.972030446228109</v>
+        <v>0.9720435005552716</v>
       </c>
       <c r="D9">
-        <v>0.9966569244571181</v>
+        <v>0.9966672832937739</v>
       </c>
       <c r="E9">
-        <v>0.982929149162015</v>
+        <v>0.9829408720075169</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035770716230411</v>
+        <v>1.03577596011091</v>
       </c>
       <c r="J9">
-        <v>0.9986110701944038</v>
+        <v>0.9986236252941145</v>
       </c>
       <c r="K9">
-        <v>1.009804474595654</v>
+        <v>1.009814663917231</v>
       </c>
       <c r="L9">
-        <v>0.996305397173198</v>
+        <v>0.9963169212044943</v>
+      </c>
+      <c r="N9">
+        <v>1.001448495242593</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -677,28 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9606507685282503</v>
+        <v>0.9606700660119583</v>
       </c>
       <c r="D10">
-        <v>0.9880386457862368</v>
+        <v>0.9880539123010041</v>
       </c>
       <c r="E10">
-        <v>0.9737147872945574</v>
+        <v>0.973731912254903</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032106303591031</v>
+        <v>1.032114017595262</v>
       </c>
       <c r="J10">
-        <v>0.9905175100880335</v>
+        <v>0.9905359492435144</v>
       </c>
       <c r="K10">
-        <v>1.002627277600602</v>
+        <v>1.002642259702622</v>
       </c>
       <c r="L10">
-        <v>0.9885754205229238</v>
+        <v>0.9885922140290199</v>
+      </c>
+      <c r="N10">
+        <v>0.9959637465294404</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -709,28 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9555084037580552</v>
+        <v>0.9555306150998171</v>
       </c>
       <c r="D11">
-        <v>0.9841488939477475</v>
+        <v>0.9841664403578546</v>
       </c>
       <c r="E11">
-        <v>0.9695640617458141</v>
+        <v>0.9695836961937243</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030431305234665</v>
+        <v>1.030440164048616</v>
       </c>
       <c r="J11">
-        <v>0.9868568147661385</v>
+        <v>0.9868779735629973</v>
       </c>
       <c r="K11">
-        <v>0.9993760605356041</v>
+        <v>0.9993932619111369</v>
       </c>
       <c r="L11">
-        <v>0.9850837231630882</v>
+        <v>0.9851029560463939</v>
+      </c>
+      <c r="N11">
+        <v>0.9934826027018894</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -741,28 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9535632065977889</v>
+        <v>0.9535865362693899</v>
       </c>
       <c r="D12">
-        <v>0.9826784395968357</v>
+        <v>0.9826968591979427</v>
       </c>
       <c r="E12">
-        <v>0.9679961091449212</v>
+        <v>0.9680167046647478</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029794965234695</v>
+        <v>1.029804262077124</v>
       </c>
       <c r="J12">
-        <v>0.9854717099218102</v>
+        <v>0.9854939080362074</v>
       </c>
       <c r="K12">
-        <v>0.9981451914398158</v>
+        <v>0.9981632415981481</v>
       </c>
       <c r="L12">
-        <v>0.9837632575769627</v>
+        <v>0.9837834232812932</v>
+      </c>
+      <c r="N12">
+        <v>0.9925437552226379</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -773,28 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9539820948848952</v>
+        <v>0.954005182964032</v>
       </c>
       <c r="D13">
-        <v>0.9829950495439741</v>
+        <v>0.9830132805960404</v>
       </c>
       <c r="E13">
-        <v>0.9683336604580051</v>
+        <v>0.9683540484555213</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029932119327631</v>
+        <v>1.029941321605845</v>
       </c>
       <c r="J13">
-        <v>0.985770000207689</v>
+        <v>0.9857919740081382</v>
       </c>
       <c r="K13">
-        <v>0.9984102968900037</v>
+        <v>0.9984281638251108</v>
       </c>
       <c r="L13">
-        <v>0.9840475958475802</v>
+        <v>0.9840675601949342</v>
+      </c>
+      <c r="N13">
+        <v>0.9927459436109831</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -805,28 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9553483465094411</v>
+        <v>0.9553706495305785</v>
       </c>
       <c r="D14">
-        <v>0.9840278802508478</v>
+        <v>0.9840454982823833</v>
       </c>
       <c r="E14">
-        <v>0.9694350010699765</v>
+        <v>0.9694547143488063</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030378999881373</v>
+        <v>1.030387894632384</v>
       </c>
       <c r="J14">
-        <v>0.9867428506997112</v>
+        <v>0.9867640947917657</v>
       </c>
       <c r="K14">
-        <v>0.9992748006049312</v>
+        <v>0.9992920716245176</v>
       </c>
       <c r="L14">
-        <v>0.9849750633339756</v>
+        <v>0.9849943727599817</v>
+      </c>
+      <c r="N14">
+        <v>0.993405356929432</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,28 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9561853991727515</v>
+        <v>0.9562072234062314</v>
       </c>
       <c r="D15">
-        <v>0.9846607851192022</v>
+        <v>0.984678029038798</v>
       </c>
       <c r="E15">
-        <v>0.9701100386350735</v>
+        <v>0.9701293401411242</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03065243099881</v>
+        <v>1.030661138016387</v>
       </c>
       <c r="J15">
-        <v>0.9873388348723322</v>
+        <v>0.9873596333339135</v>
       </c>
       <c r="K15">
-        <v>0.9998043193667743</v>
+        <v>0.9998212265544082</v>
       </c>
       <c r="L15">
-        <v>0.9855433369040483</v>
+        <v>0.9855622464523781</v>
+      </c>
+      <c r="N15">
+        <v>0.993809317800013</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -869,31 +911,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9609872906177669</v>
+        <v>0.9610063995100926</v>
       </c>
       <c r="D16">
-        <v>0.9882933107075054</v>
+        <v>0.9883084294266994</v>
       </c>
       <c r="E16">
-        <v>0.9739867010326566</v>
+        <v>0.9740036633088806</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032215532590689</v>
+        <v>1.032223172324762</v>
       </c>
       <c r="J16">
-        <v>0.9907570114842413</v>
+        <v>0.9907752740365463</v>
       </c>
       <c r="K16">
-        <v>1.002839889671728</v>
+        <v>1.002854727751435</v>
       </c>
       <c r="L16">
-        <v>0.9888039603351885</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.9888205955182822</v>
+      </c>
+      <c r="N16">
+        <v>0.9961260679664772</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -901,31 +946,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9639399773194686</v>
+        <v>0.963957442175273</v>
       </c>
       <c r="D17">
-        <v>0.9905283328037522</v>
+        <v>0.9905421619160644</v>
       </c>
       <c r="E17">
-        <v>0.9763740092965182</v>
+        <v>0.976389552038592</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033171780394192</v>
+        <v>1.033178771772481</v>
       </c>
       <c r="J17">
-        <v>0.9928580675096239</v>
+        <v>0.9928747875275277</v>
       </c>
       <c r="K17">
-        <v>1.004704498114373</v>
+        <v>1.004718078693813</v>
       </c>
       <c r="L17">
-        <v>0.9908093693143324</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.9908246220583519</v>
+      </c>
+      <c r="N17">
+        <v>0.9975500082174384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -933,31 +981,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9656417023910038</v>
+        <v>0.9656582282908005</v>
       </c>
       <c r="D18">
-        <v>0.9918168793839482</v>
+        <v>0.9918299709981696</v>
       </c>
       <c r="E18">
-        <v>0.9777511149351801</v>
+        <v>0.9777658458695835</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033721092065576</v>
+        <v>1.033727712414965</v>
       </c>
       <c r="J18">
-        <v>0.9940686533393988</v>
+        <v>0.9940844899504482</v>
       </c>
       <c r="K18">
-        <v>1.005778375142462</v>
+        <v>1.005791235921772</v>
       </c>
       <c r="L18">
-        <v>0.9919652721125374</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.9919797334858637</v>
+      </c>
+      <c r="N18">
+        <v>0.998370414809268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -965,31 +1016,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9662185448725719</v>
+        <v>0.9662347538810401</v>
       </c>
       <c r="D19">
-        <v>0.9922537325563779</v>
+        <v>0.9922665751119709</v>
       </c>
       <c r="E19">
-        <v>0.9782181228930842</v>
+        <v>0.9782325796738073</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033906985508704</v>
+        <v>1.033913480517357</v>
       </c>
       <c r="J19">
-        <v>0.9944789545803584</v>
+        <v>0.9944944926497333</v>
       </c>
       <c r="K19">
-        <v>1.006142260386038</v>
+        <v>1.006154877973803</v>
       </c>
       <c r="L19">
-        <v>0.992357111845112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.9923713058381177</v>
+      </c>
+      <c r="N19">
+        <v>0.9986484665921972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -997,31 +1051,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9636253244371671</v>
+        <v>0.9636429635863942</v>
       </c>
       <c r="D20">
-        <v>0.9902901113473248</v>
+        <v>0.9903040772803019</v>
       </c>
       <c r="E20">
-        <v>0.9761194774721634</v>
+        <v>0.9761351708204988</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033070064457458</v>
+        <v>1.033077124649</v>
       </c>
       <c r="J20">
-        <v>0.9926342008493249</v>
+        <v>0.9926510846555024</v>
       </c>
       <c r="K20">
-        <v>1.004505873607814</v>
+        <v>1.004519587671368</v>
       </c>
       <c r="L20">
-        <v>0.9905956493712366</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.9906110488677171</v>
+      </c>
+      <c r="N20">
+        <v>0.9973982919438996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1029,31 +1086,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9549470124842769</v>
+        <v>0.9549695456530911</v>
       </c>
       <c r="D21">
-        <v>0.9837244610967933</v>
+        <v>0.9837422588933888</v>
       </c>
       <c r="E21">
-        <v>0.9691114240725233</v>
+        <v>0.9691313352107985</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030247803706797</v>
+        <v>1.030256788650497</v>
       </c>
       <c r="J21">
-        <v>0.9864570869379031</v>
+        <v>0.9864785450777321</v>
       </c>
       <c r="K21">
-        <v>0.999020881267811</v>
+        <v>0.9990383270699382</v>
       </c>
       <c r="L21">
-        <v>0.9847026111157415</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.984722112635055</v>
+      </c>
+      <c r="N21">
+        <v>0.9932116631210177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1061,31 +1121,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9492859208966807</v>
+        <v>0.9493117421091058</v>
       </c>
       <c r="D22">
-        <v>0.9794469989427029</v>
+        <v>0.9794673602675581</v>
       </c>
       <c r="E22">
-        <v>0.9645524825936418</v>
+        <v>0.9645752151201946</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028390816871871</v>
+        <v>1.028401086938572</v>
       </c>
       <c r="J22">
-        <v>0.9824254533914759</v>
+        <v>0.9824499581377512</v>
       </c>
       <c r="K22">
-        <v>0.995436914196997</v>
+        <v>0.9954568494745022</v>
       </c>
       <c r="L22">
-        <v>0.9808604585684159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9808826957172395</v>
+      </c>
+      <c r="N22">
+        <v>0.9904788660807436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1093,31 +1156,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9523074049041037</v>
+        <v>0.9523314614048159</v>
       </c>
       <c r="D23">
-        <v>0.9817294134365453</v>
+        <v>0.9817483999991358</v>
       </c>
       <c r="E23">
-        <v>0.9669844775861477</v>
+        <v>0.9670056971089884</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029383394331589</v>
+        <v>1.029392975460998</v>
       </c>
       <c r="J23">
-        <v>0.9845774081138852</v>
+        <v>0.9846002803798988</v>
       </c>
       <c r="K23">
-        <v>0.9973502823992217</v>
+        <v>0.9973688833216584</v>
       </c>
       <c r="L23">
-        <v>0.9829108880876556</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9829316590408584</v>
+      </c>
+      <c r="N23">
+        <v>0.991937568907212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1125,31 +1191,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.963767565757364</v>
+        <v>0.9637851260894646</v>
       </c>
       <c r="D24">
-        <v>0.9903977999051476</v>
+        <v>0.9904117039695305</v>
       </c>
       <c r="E24">
-        <v>0.9762345367983237</v>
+        <v>0.9762501620444096</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033116051561247</v>
+        <v>1.033123080637069</v>
       </c>
       <c r="J24">
-        <v>0.9927354025373968</v>
+        <v>0.9927522122844907</v>
       </c>
       <c r="K24">
-        <v>1.004595665740047</v>
+        <v>1.004609319445813</v>
       </c>
       <c r="L24">
-        <v>0.9906922627854301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.9907075959247132</v>
+      </c>
+      <c r="N24">
+        <v>0.9974668772801594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1157,28 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9762685500153777</v>
+        <v>0.9762793458909822</v>
       </c>
       <c r="D25">
-        <v>0.9998694826677001</v>
+        <v>0.9998780586228835</v>
       </c>
       <c r="E25">
-        <v>0.9863710858977842</v>
+        <v>0.9863808463721454</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037118451813497</v>
+        <v>1.03712279623344</v>
       </c>
       <c r="J25">
-        <v>1.001621844015761</v>
+        <v>1.001632251348103</v>
       </c>
       <c r="K25">
-        <v>1.012469825087532</v>
+        <v>1.012478267869103</v>
       </c>
       <c r="L25">
-        <v>0.9991847230162019</v>
+        <v>0.9991943265550627</v>
+      </c>
+      <c r="N25">
+        <v>1.003488401846536</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_bus/vm_pu.xlsx
@@ -421,31 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9856895999970999</v>
+        <v>0.9970575110618178</v>
       </c>
       <c r="D2">
-        <v>1.007014457362785</v>
+        <v>1.016068315791337</v>
       </c>
       <c r="E2">
-        <v>0.9940430415884142</v>
+        <v>1.007270189627219</v>
+      </c>
+      <c r="F2">
+        <v>1.008305470222529</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040076193907674</v>
+        <v>1.044670860118517</v>
       </c>
       <c r="J2">
-        <v>1.008306923020678</v>
+        <v>1.019326589076377</v>
       </c>
       <c r="K2">
-        <v>1.018376927038404</v>
+        <v>1.027308241832306</v>
       </c>
       <c r="L2">
-        <v>1.005585994925814</v>
+        <v>1.018629159906014</v>
+      </c>
+      <c r="M2">
+        <v>1.019650296733657</v>
       </c>
       <c r="N2">
-        <v>1.008012916801914</v>
+        <v>1.020774149751259</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,31 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9922373333782152</v>
+        <v>1.007240444086607</v>
       </c>
       <c r="D3">
-        <v>1.011981213214233</v>
+        <v>1.023949079768788</v>
       </c>
       <c r="E3">
-        <v>0.9993909181418766</v>
+        <v>1.016623006473131</v>
+      </c>
+      <c r="F3">
+        <v>1.018823003639991</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042095342015341</v>
+        <v>1.048176123909987</v>
       </c>
       <c r="J3">
-        <v>1.012941876967467</v>
+        <v>1.02753565468165</v>
       </c>
       <c r="K3">
-        <v>1.022463053482295</v>
+        <v>1.03428443035977</v>
       </c>
       <c r="L3">
-        <v>1.010031598220854</v>
+        <v>1.027047520735044</v>
+      </c>
+      <c r="M3">
+        <v>1.029220574854905</v>
       </c>
       <c r="N3">
-        <v>1.01115377364065</v>
+        <v>1.028994873171285</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -491,31 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.996352994892486</v>
+        <v>1.013562109414365</v>
       </c>
       <c r="D4">
-        <v>1.01510289736514</v>
+        <v>1.028843480511898</v>
       </c>
       <c r="E4">
-        <v>1.002759404458881</v>
+        <v>1.022431788226863</v>
+      </c>
+      <c r="F4">
+        <v>1.025359679261485</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043347379869635</v>
+        <v>1.050334261000161</v>
       </c>
       <c r="J4">
-        <v>1.015850453763012</v>
+        <v>1.032625144231255</v>
       </c>
       <c r="K4">
-        <v>1.025022397939014</v>
+        <v>1.038605820475137</v>
       </c>
       <c r="L4">
-        <v>1.012824639598466</v>
+        <v>1.032266814570189</v>
+      </c>
+      <c r="M4">
+        <v>1.035161374427494</v>
       </c>
       <c r="N4">
-        <v>1.013124258831097</v>
+        <v>1.034091590379823</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -526,31 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9980556630057859</v>
+        <v>1.016160641035774</v>
       </c>
       <c r="D5">
-        <v>1.016394187343357</v>
+        <v>1.030855609777899</v>
       </c>
       <c r="E5">
-        <v>1.00415456328272</v>
+        <v>1.024820003205126</v>
+      </c>
+      <c r="F5">
+        <v>1.028048305455949</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043861165104969</v>
+        <v>1.051216963890709</v>
       </c>
       <c r="J5">
-        <v>1.017052532209236</v>
+        <v>1.034715480137428</v>
       </c>
       <c r="K5">
-        <v>1.026078952234693</v>
+        <v>1.040379735552121</v>
       </c>
       <c r="L5">
-        <v>1.013979755106804</v>
+        <v>1.034410495394916</v>
+      </c>
+      <c r="M5">
+        <v>1.037603180745454</v>
       </c>
       <c r="N5">
-        <v>1.013938511120847</v>
+        <v>1.036184894802748</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -561,31 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9983399726817231</v>
+        <v>1.016593612256385</v>
       </c>
       <c r="D6">
-        <v>1.016609792769469</v>
+        <v>1.031190884915691</v>
       </c>
       <c r="E6">
-        <v>1.004387617252514</v>
+        <v>1.025217958573854</v>
+      </c>
+      <c r="F6">
+        <v>1.028496388333068</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043946707781317</v>
+        <v>1.051363779496172</v>
       </c>
       <c r="J6">
-        <v>1.017253180765601</v>
+        <v>1.03506367232901</v>
       </c>
       <c r="K6">
-        <v>1.026255239201596</v>
+        <v>1.040675163385942</v>
       </c>
       <c r="L6">
-        <v>1.014172610902344</v>
+        <v>1.034767575875033</v>
+      </c>
+      <c r="M6">
+        <v>1.038010026990672</v>
       </c>
       <c r="N6">
-        <v>1.014074417037359</v>
+        <v>1.03653358146718</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -596,31 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9963758524675563</v>
+        <v>1.013597057281268</v>
       </c>
       <c r="D7">
-        <v>1.015120233161874</v>
+        <v>1.028870540942261</v>
       </c>
       <c r="E7">
-        <v>1.002778127626119</v>
+        <v>1.022463905630164</v>
+      </c>
+      <c r="F7">
+        <v>1.025395832059701</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043354293891356</v>
+        <v>1.050346150128475</v>
       </c>
       <c r="J7">
-        <v>1.015866596025921</v>
+        <v>1.032653264207581</v>
       </c>
       <c r="K7">
-        <v>1.025036590769667</v>
+        <v>1.038629687678442</v>
       </c>
       <c r="L7">
-        <v>1.012840148102912</v>
+        <v>1.032295652006805</v>
+      </c>
+      <c r="M7">
+        <v>1.035194215210675</v>
       </c>
       <c r="N7">
-        <v>1.01313519362078</v>
+        <v>1.034119750289741</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -631,31 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.987928433203021</v>
+        <v>1.000557400663614</v>
       </c>
       <c r="D8">
-        <v>1.008712695236719</v>
+        <v>1.018776408747374</v>
       </c>
       <c r="E8">
-        <v>0.995870083459712</v>
+        <v>1.0104841871958</v>
+      </c>
+      <c r="F8">
+        <v>1.011918789734467</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040770152416692</v>
+        <v>1.045879385799552</v>
       </c>
       <c r="J8">
-        <v>1.009892696603368</v>
+        <v>1.022149446259748</v>
       </c>
       <c r="K8">
-        <v>1.019775926852416</v>
+        <v>1.029707909136165</v>
       </c>
       <c r="L8">
-        <v>1.007106289238646</v>
+        <v>1.021523991839689</v>
+      </c>
+      <c r="M8">
+        <v>1.022939697935608</v>
       </c>
       <c r="N8">
-        <v>1.009087611995076</v>
+        <v>1.023601015715617</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -666,31 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9720435005552716</v>
+        <v>0.9752726906741768</v>
       </c>
       <c r="D9">
-        <v>0.9966672832937739</v>
+        <v>0.9992299876972656</v>
       </c>
       <c r="E9">
-        <v>0.9829408720075169</v>
+        <v>0.9872801319225391</v>
+      </c>
+      <c r="F9">
+        <v>0.985848680216617</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03577596011091</v>
+        <v>1.03707332850489</v>
       </c>
       <c r="J9">
-        <v>0.9986236252941145</v>
+        <v>1.001729902233316</v>
       </c>
       <c r="K9">
-        <v>1.009814663917231</v>
+        <v>1.012335570179777</v>
       </c>
       <c r="L9">
-        <v>0.9963169212044943</v>
+        <v>1.000583007301439</v>
+      </c>
+      <c r="M9">
+        <v>0.9991756026348705</v>
       </c>
       <c r="N9">
-        <v>1.001448495242593</v>
+        <v>1.003152473594513</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -701,31 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9606700660119583</v>
+        <v>0.9564231807793451</v>
       </c>
       <c r="D10">
-        <v>0.9880539123010041</v>
+        <v>0.984694741493891</v>
       </c>
       <c r="E10">
-        <v>0.973731912254903</v>
+        <v>0.9700077669009303</v>
+      </c>
+      <c r="F10">
+        <v>0.9664605263196167</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032114017595262</v>
+        <v>1.030416799239071</v>
       </c>
       <c r="J10">
-        <v>0.9905359492435144</v>
+        <v>0.986479157406188</v>
       </c>
       <c r="K10">
-        <v>1.002642259702622</v>
+        <v>0.9993459472821009</v>
       </c>
       <c r="L10">
-        <v>0.9885922140290199</v>
+        <v>0.9849405110621963</v>
+      </c>
+      <c r="M10">
+        <v>0.9814629535834504</v>
       </c>
       <c r="N10">
-        <v>0.9959637465294404</v>
+        <v>0.9878800709604457</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -736,31 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9555306150998171</v>
+        <v>0.9476584102177124</v>
       </c>
       <c r="D11">
-        <v>0.9841664403578546</v>
+        <v>0.9779498496592524</v>
       </c>
       <c r="E11">
-        <v>0.9695836961937243</v>
+        <v>0.9619850602145953</v>
+      </c>
+      <c r="F11">
+        <v>0.9574575186173678</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030440164048616</v>
+        <v>1.027302025766936</v>
       </c>
       <c r="J11">
-        <v>0.9868779735629973</v>
+        <v>0.9793832778258554</v>
       </c>
       <c r="K11">
-        <v>0.9993932619111369</v>
+        <v>0.993299934232684</v>
       </c>
       <c r="L11">
-        <v>0.9851029560463939</v>
+        <v>0.977661346314036</v>
+      </c>
+      <c r="M11">
+        <v>0.9732289353660482</v>
       </c>
       <c r="N11">
-        <v>0.9934826027018894</v>
+        <v>0.9807741144172004</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -771,31 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9535865362693899</v>
+        <v>0.944297932277936</v>
       </c>
       <c r="D12">
-        <v>0.9826968591979427</v>
+        <v>0.9753664232751358</v>
       </c>
       <c r="E12">
-        <v>0.9680167046647478</v>
+        <v>0.9589106751307195</v>
+      </c>
+      <c r="F12">
+        <v>0.9540076486397938</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029804262077124</v>
+        <v>1.026105097214314</v>
       </c>
       <c r="J12">
-        <v>0.9854939080362074</v>
+        <v>0.9766622303993879</v>
       </c>
       <c r="K12">
-        <v>0.9981632415981481</v>
+        <v>0.9909812862391917</v>
       </c>
       <c r="L12">
-        <v>0.9837834232812932</v>
+        <v>0.9748698178368663</v>
+      </c>
+      <c r="M12">
+        <v>0.9700724197741564</v>
       </c>
       <c r="N12">
-        <v>0.9925437552226379</v>
+        <v>0.9780492027912787</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -806,31 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.954005182964032</v>
+        <v>0.9450237775248457</v>
       </c>
       <c r="D13">
-        <v>0.9830132805960404</v>
+        <v>0.9759243019543236</v>
       </c>
       <c r="E13">
-        <v>0.9683540484555213</v>
+        <v>0.9595746497157974</v>
+      </c>
+      <c r="F13">
+        <v>0.9547527122112274</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029941321605845</v>
+        <v>1.026363744682932</v>
       </c>
       <c r="J13">
-        <v>0.9857919740081382</v>
+        <v>0.9772499772663296</v>
       </c>
       <c r="K13">
-        <v>0.9984281638251108</v>
+        <v>0.9914821208814587</v>
       </c>
       <c r="L13">
-        <v>0.9840675601949342</v>
+        <v>0.9754727982794928</v>
+      </c>
+      <c r="M13">
+        <v>0.9707541864248176</v>
       </c>
       <c r="N13">
-        <v>0.9927459436109831</v>
+        <v>0.9786377843261869</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -841,31 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9553706495305785</v>
+        <v>0.9473828657310088</v>
       </c>
       <c r="D14">
-        <v>0.9840454982823833</v>
+        <v>0.9777379637285427</v>
       </c>
       <c r="E14">
-        <v>0.9694547143488063</v>
+        <v>0.9617329404304802</v>
+      </c>
+      <c r="F14">
+        <v>0.9571746042799104</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030387894632384</v>
+        <v>1.0272039358583</v>
       </c>
       <c r="J14">
-        <v>0.9867640947917657</v>
+        <v>0.9791601710658147</v>
       </c>
       <c r="K14">
-        <v>0.9992920716245176</v>
+        <v>0.9931098243846307</v>
       </c>
       <c r="L14">
-        <v>0.9849943727599817</v>
+        <v>0.9774324648574068</v>
+      </c>
+      <c r="M14">
+        <v>0.9729701044810949</v>
       </c>
       <c r="N14">
-        <v>0.993405356929432</v>
+        <v>0.9805506908199694</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -876,31 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9562072234062314</v>
+        <v>0.9488219994047432</v>
       </c>
       <c r="D15">
-        <v>0.984678029038798</v>
+        <v>0.978844726066799</v>
       </c>
       <c r="E15">
-        <v>0.9701293401411242</v>
+        <v>0.9630497954930171</v>
+      </c>
+      <c r="F15">
+        <v>0.9586523092839621</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030661138016387</v>
+        <v>1.027716139279713</v>
       </c>
       <c r="J15">
-        <v>0.9873596333339135</v>
+        <v>0.9803254131671092</v>
       </c>
       <c r="K15">
-        <v>0.9998212265544082</v>
+        <v>0.99410272333679</v>
       </c>
       <c r="L15">
-        <v>0.9855622464523781</v>
+        <v>0.978627858806243</v>
+      </c>
+      <c r="M15">
+        <v>0.9743219650270321</v>
       </c>
       <c r="N15">
-        <v>0.993809317800013</v>
+        <v>0.9817175876987032</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -911,31 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9610063995100926</v>
+        <v>0.9569910231757797</v>
       </c>
       <c r="D16">
-        <v>0.9883084294266994</v>
+        <v>0.9851320471253289</v>
       </c>
       <c r="E16">
-        <v>0.9740036633088806</v>
+        <v>0.970527732697842</v>
+      </c>
+      <c r="F16">
+        <v>0.9670440622726739</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032223172324762</v>
+        <v>1.030618214320417</v>
       </c>
       <c r="J16">
-        <v>0.9907752740365463</v>
+        <v>0.9869388045341517</v>
       </c>
       <c r="K16">
-        <v>1.002854727751435</v>
+        <v>0.999737553684662</v>
       </c>
       <c r="L16">
-        <v>0.9888205955182822</v>
+        <v>0.9854120065019134</v>
+      </c>
+      <c r="M16">
+        <v>0.9819964652654037</v>
       </c>
       <c r="N16">
-        <v>0.9961260679664772</v>
+        <v>0.9883403708400536</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,31 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.963957442175273</v>
+        <v>0.9619447412010936</v>
       </c>
       <c r="D17">
-        <v>0.9905421619160644</v>
+        <v>0.9889485815119237</v>
       </c>
       <c r="E17">
-        <v>0.976389552038592</v>
+        <v>0.9750647812366728</v>
+      </c>
+      <c r="F17">
+        <v>0.9721360566812072</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033178771772481</v>
+        <v>1.032373158017094</v>
       </c>
       <c r="J17">
-        <v>0.9928747875275277</v>
+        <v>0.9909481778923349</v>
       </c>
       <c r="K17">
-        <v>1.004718078693813</v>
+        <v>1.003153197136833</v>
       </c>
       <c r="L17">
-        <v>0.9908246220583519</v>
+        <v>0.9895246122922911</v>
+      </c>
+      <c r="M17">
+        <v>0.9866509409326398</v>
       </c>
       <c r="N17">
-        <v>0.9975500082174384</v>
+        <v>0.9923554379682868</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -981,31 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9656582282908005</v>
+        <v>0.9647771154485504</v>
       </c>
       <c r="D18">
-        <v>0.9918299709981696</v>
+        <v>0.9911319876128266</v>
       </c>
       <c r="E18">
-        <v>0.9777658458695835</v>
+        <v>0.9776597026604591</v>
+      </c>
+      <c r="F18">
+        <v>0.9750486140444813</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033727712414965</v>
+        <v>1.033374751865429</v>
       </c>
       <c r="J18">
-        <v>0.9940844899504482</v>
+        <v>0.9932401748496753</v>
       </c>
       <c r="K18">
-        <v>1.005791235921772</v>
+        <v>1.005105570598415</v>
       </c>
       <c r="L18">
-        <v>0.9919797334858637</v>
+        <v>0.991875532825697</v>
+      </c>
+      <c r="M18">
+        <v>0.9893124038263583</v>
       </c>
       <c r="N18">
-        <v>0.998370414809268</v>
+        <v>0.9946506898242021</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1016,31 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9662347538810401</v>
+        <v>0.9657335884882352</v>
       </c>
       <c r="D19">
-        <v>0.9922665751119709</v>
+        <v>0.9918695042548751</v>
       </c>
       <c r="E19">
-        <v>0.9782325796738073</v>
+        <v>0.9785361157443739</v>
+      </c>
+      <c r="F19">
+        <v>0.9760323516314788</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033913480517357</v>
+        <v>1.033712667158643</v>
       </c>
       <c r="J19">
-        <v>0.9944944926497333</v>
+        <v>0.9940140867976344</v>
       </c>
       <c r="K19">
-        <v>1.006154877973803</v>
+        <v>1.005764766246183</v>
       </c>
       <c r="L19">
-        <v>0.9923713058381177</v>
+        <v>0.9926693267232356</v>
+      </c>
+      <c r="M19">
+        <v>0.9902111889890383</v>
       </c>
       <c r="N19">
-        <v>0.9986484665921972</v>
+        <v>0.9954257008158963</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1051,31 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9636429635863942</v>
+        <v>0.9614192475544637</v>
       </c>
       <c r="D20">
-        <v>0.9903040772803019</v>
+        <v>0.988543588744431</v>
       </c>
       <c r="E20">
-        <v>0.9761351708204988</v>
+        <v>0.9745834046140383</v>
+      </c>
+      <c r="F20">
+        <v>0.9715957770115949</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033077124649</v>
+        <v>1.032187181193793</v>
       </c>
       <c r="J20">
-        <v>0.9926510846555024</v>
+        <v>0.9905229044393876</v>
       </c>
       <c r="K20">
-        <v>1.004519587671368</v>
+        <v>1.002790921723019</v>
       </c>
       <c r="L20">
-        <v>0.9906110488677171</v>
+        <v>0.9890883986974376</v>
+      </c>
+      <c r="M20">
+        <v>0.9861571708297717</v>
       </c>
       <c r="N20">
-        <v>0.9973982919438996</v>
+        <v>0.9919295605782569</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1086,31 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9549695456530911</v>
+        <v>0.9466911991839613</v>
       </c>
       <c r="D21">
-        <v>0.9837422588933888</v>
+        <v>0.9772061356138433</v>
       </c>
       <c r="E21">
-        <v>0.9691313352107985</v>
+        <v>0.9611001004723371</v>
+      </c>
+      <c r="F21">
+        <v>0.9564644697442584</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030256788650497</v>
+        <v>1.026957670038484</v>
       </c>
       <c r="J21">
-        <v>0.9864785450777321</v>
+        <v>0.97860012664447</v>
       </c>
       <c r="K21">
-        <v>0.9990383270699382</v>
+        <v>0.9926326065264964</v>
       </c>
       <c r="L21">
-        <v>0.984722112635055</v>
+        <v>0.9768579214264635</v>
+      </c>
+      <c r="M21">
+        <v>0.9723204001636621</v>
       </c>
       <c r="N21">
-        <v>0.9932116631210177</v>
+        <v>0.9799898510713084</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1121,31 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9493117421091058</v>
+        <v>0.9368146616687887</v>
       </c>
       <c r="D22">
-        <v>0.9794673602675581</v>
+        <v>0.9696190874707939</v>
       </c>
       <c r="E22">
-        <v>0.9645752151201946</v>
+        <v>0.9520677813701286</v>
+      </c>
+      <c r="F22">
+        <v>0.946329083654824</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028401086938572</v>
+        <v>1.023435018263735</v>
       </c>
       <c r="J22">
-        <v>0.9824499581377512</v>
+        <v>0.9706023829695678</v>
       </c>
       <c r="K22">
-        <v>0.9954568494745022</v>
+        <v>0.9858174157030828</v>
       </c>
       <c r="L22">
-        <v>0.9808826957172395</v>
+        <v>0.9686525859462861</v>
+      </c>
+      <c r="M22">
+        <v>0.963044409146351</v>
       </c>
       <c r="N22">
-        <v>0.9904788660807436</v>
+        <v>0.9719807496830339</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1156,31 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9523314614048159</v>
+        <v>0.9421145503933209</v>
       </c>
       <c r="D23">
-        <v>0.9817483999991358</v>
+        <v>0.9736887254779065</v>
       </c>
       <c r="E23">
-        <v>0.9670056971089884</v>
+        <v>0.9569136596645287</v>
+      </c>
+      <c r="F23">
+        <v>0.9517667530485074</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029392975460998</v>
+        <v>1.025326696709756</v>
       </c>
       <c r="J23">
-        <v>0.9846002803798988</v>
+        <v>0.9748942136836812</v>
       </c>
       <c r="K23">
-        <v>0.9973688833216584</v>
+        <v>0.9894746964886419</v>
       </c>
       <c r="L23">
-        <v>0.9829316590408584</v>
+        <v>0.9730559439149428</v>
+      </c>
+      <c r="M23">
+        <v>0.9680217107992816</v>
       </c>
       <c r="N23">
-        <v>0.991937568907212</v>
+        <v>0.9762786752890414</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1191,31 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9637851260894646</v>
+        <v>0.9616568707555471</v>
       </c>
       <c r="D24">
-        <v>0.9904117039695305</v>
+        <v>0.9887267187864462</v>
       </c>
       <c r="E24">
-        <v>0.9762501620444096</v>
+        <v>0.9748010760913081</v>
+      </c>
+      <c r="F24">
+        <v>0.9718400828251326</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033123080637069</v>
+        <v>1.032271283840613</v>
       </c>
       <c r="J24">
-        <v>0.9927522122844907</v>
+        <v>0.9907152103900537</v>
       </c>
       <c r="K24">
-        <v>1.004609319445813</v>
+        <v>1.002954741031754</v>
       </c>
       <c r="L24">
-        <v>0.9907075959247132</v>
+        <v>0.9892856519886578</v>
+      </c>
+      <c r="M24">
+        <v>0.9863804483797347</v>
       </c>
       <c r="N24">
-        <v>0.9974668772801594</v>
+        <v>0.9921221396254307</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1226,31 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9762793458909822</v>
+        <v>0.9821233776904489</v>
       </c>
       <c r="D25">
-        <v>0.9998780586228835</v>
+        <v>1.004521262506787</v>
       </c>
       <c r="E25">
-        <v>0.9863808463721454</v>
+        <v>0.9935634180187066</v>
+      </c>
+      <c r="F25">
+        <v>0.9929046387530992</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03712279623344</v>
+        <v>1.039475170269877</v>
       </c>
       <c r="J25">
-        <v>1.001632251348103</v>
+        <v>1.007267710934069</v>
       </c>
       <c r="K25">
-        <v>1.012478267869103</v>
+        <v>1.017049794818819</v>
       </c>
       <c r="L25">
-        <v>0.9991943265550627</v>
+        <v>1.006262482220854</v>
+      </c>
+      <c r="M25">
+        <v>1.005614108804161</v>
       </c>
       <c r="N25">
-        <v>1.003488401846536</v>
+        <v>1.008698146618817</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9970575110618178</v>
+        <v>1.014311240262708</v>
       </c>
       <c r="D2">
-        <v>1.016068315791337</v>
+        <v>1.027885133159949</v>
       </c>
       <c r="E2">
-        <v>1.007270189627219</v>
+        <v>1.026973675277489</v>
       </c>
       <c r="F2">
-        <v>1.008305470222529</v>
+        <v>1.033941016917233</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044670860118517</v>
+        <v>1.047865351092046</v>
       </c>
       <c r="J2">
-        <v>1.019326589076377</v>
+        <v>1.036072170720651</v>
       </c>
       <c r="K2">
-        <v>1.027308241832306</v>
+        <v>1.038969186348362</v>
       </c>
       <c r="L2">
-        <v>1.018629159906014</v>
+        <v>1.038069591389306</v>
       </c>
       <c r="M2">
-        <v>1.019650296733657</v>
+        <v>1.044946914767002</v>
       </c>
       <c r="N2">
-        <v>1.020774149751259</v>
+        <v>1.015632140959974</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>1.007240444086607</v>
+        <v>1.018804937955047</v>
       </c>
       <c r="D3">
-        <v>1.023949079768788</v>
+        <v>1.031101012437268</v>
       </c>
       <c r="E3">
-        <v>1.016623006473131</v>
+        <v>1.030860480194252</v>
       </c>
       <c r="F3">
-        <v>1.018823003639991</v>
+        <v>1.038448524095234</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048176123909987</v>
+        <v>1.049238896773933</v>
       </c>
       <c r="J3">
-        <v>1.02753565468165</v>
+        <v>1.038795765833167</v>
       </c>
       <c r="K3">
-        <v>1.03428443035977</v>
+        <v>1.041350833533348</v>
       </c>
       <c r="L3">
-        <v>1.027047520735044</v>
+        <v>1.041113153901102</v>
       </c>
       <c r="M3">
-        <v>1.029220574854905</v>
+        <v>1.048611994314547</v>
       </c>
       <c r="N3">
-        <v>1.028994873171285</v>
+        <v>1.016561599771907</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013562109414365</v>
+        <v>1.021654142479571</v>
       </c>
       <c r="D4">
-        <v>1.028843480511898</v>
+        <v>1.033143012499535</v>
       </c>
       <c r="E4">
-        <v>1.022431788226863</v>
+        <v>1.033330616604054</v>
       </c>
       <c r="F4">
-        <v>1.025359679261485</v>
+        <v>1.041313603689554</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050334261000161</v>
+        <v>1.050101489145722</v>
       </c>
       <c r="J4">
-        <v>1.032625144231255</v>
+        <v>1.040519696970513</v>
       </c>
       <c r="K4">
-        <v>1.038605820475137</v>
+        <v>1.042857232511484</v>
       </c>
       <c r="L4">
-        <v>1.032266814570189</v>
+        <v>1.043042748186227</v>
       </c>
       <c r="M4">
-        <v>1.035161374427494</v>
+        <v>1.050937723996519</v>
       </c>
       <c r="N4">
-        <v>1.034091590379823</v>
+        <v>1.017149608681428</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016160641035774</v>
+        <v>1.022838428491234</v>
       </c>
       <c r="D5">
-        <v>1.030855609777899</v>
+        <v>1.033992447375851</v>
       </c>
       <c r="E5">
-        <v>1.024820003205126</v>
+        <v>1.034358680368447</v>
       </c>
       <c r="F5">
-        <v>1.028048305455949</v>
+        <v>1.042506172008243</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051216963890709</v>
+        <v>1.050458005542033</v>
       </c>
       <c r="J5">
-        <v>1.034715480137428</v>
+        <v>1.041235517774548</v>
       </c>
       <c r="K5">
-        <v>1.040379735552121</v>
+        <v>1.043482456431108</v>
       </c>
       <c r="L5">
-        <v>1.034410495394916</v>
+        <v>1.043844722764068</v>
       </c>
       <c r="M5">
-        <v>1.037603180745454</v>
+        <v>1.051904851331426</v>
       </c>
       <c r="N5">
-        <v>1.036184894802748</v>
+        <v>1.01739368782652</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016593612256385</v>
+        <v>1.023036496326319</v>
       </c>
       <c r="D6">
-        <v>1.031190884915691</v>
+        <v>1.034134550304219</v>
       </c>
       <c r="E6">
-        <v>1.025217958573854</v>
+        <v>1.034530698291365</v>
       </c>
       <c r="F6">
-        <v>1.028496388333068</v>
+        <v>1.042705723323869</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051363779496172</v>
+        <v>1.050517511735202</v>
       </c>
       <c r="J6">
-        <v>1.03506367232901</v>
+        <v>1.041355191985758</v>
       </c>
       <c r="K6">
-        <v>1.040675163385942</v>
+        <v>1.043586967969639</v>
       </c>
       <c r="L6">
-        <v>1.034767575875033</v>
+        <v>1.043978845212088</v>
       </c>
       <c r="M6">
-        <v>1.038010026990672</v>
+        <v>1.052066624286714</v>
       </c>
       <c r="N6">
-        <v>1.03653358146718</v>
+        <v>1.0174344894147</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013597057281268</v>
+        <v>1.021670019458351</v>
       </c>
       <c r="D7">
-        <v>1.028870540942261</v>
+        <v>1.033154397767672</v>
       </c>
       <c r="E7">
-        <v>1.022463905630164</v>
+        <v>1.03334439396443</v>
       </c>
       <c r="F7">
-        <v>1.025395832059701</v>
+        <v>1.041329585084324</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050346150128475</v>
+        <v>1.050106276777629</v>
       </c>
       <c r="J7">
-        <v>1.032653264207581</v>
+        <v>1.04052929649411</v>
       </c>
       <c r="K7">
-        <v>1.038629687678442</v>
+        <v>1.042865618171844</v>
       </c>
       <c r="L7">
-        <v>1.032295652006805</v>
+        <v>1.043053500077754</v>
       </c>
       <c r="M7">
-        <v>1.035194215210675</v>
+        <v>1.050950688021725</v>
       </c>
       <c r="N7">
-        <v>1.034119750289741</v>
+        <v>1.017152882219691</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000557400663614</v>
+        <v>1.015842325759914</v>
       </c>
       <c r="D8">
-        <v>1.018776408747374</v>
+        <v>1.028980184673123</v>
       </c>
       <c r="E8">
-        <v>1.0104841871958</v>
+        <v>1.028296758071154</v>
       </c>
       <c r="F8">
-        <v>1.011918789734467</v>
+        <v>1.035475299604481</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045879385799552</v>
+        <v>1.048335062055391</v>
       </c>
       <c r="J8">
-        <v>1.022149446259748</v>
+        <v>1.037000748225019</v>
       </c>
       <c r="K8">
-        <v>1.029707909136165</v>
+        <v>1.039781403961117</v>
       </c>
       <c r="L8">
-        <v>1.021523991839689</v>
+        <v>1.039106602475356</v>
       </c>
       <c r="M8">
-        <v>1.022939697935608</v>
+        <v>1.046195255829256</v>
       </c>
       <c r="N8">
-        <v>1.023601015715617</v>
+        <v>1.015949089616048</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9752726906741768</v>
+        <v>1.005101715326734</v>
       </c>
       <c r="D9">
-        <v>0.9992299876972656</v>
+        <v>1.021313184957947</v>
       </c>
       <c r="E9">
-        <v>0.9872801319225391</v>
+        <v>1.019041130356999</v>
       </c>
       <c r="F9">
-        <v>0.985848680216617</v>
+        <v>1.02474354233114</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03707332850489</v>
+        <v>1.045006242921554</v>
       </c>
       <c r="J9">
-        <v>1.001729902233316</v>
+        <v>1.030475596267564</v>
       </c>
       <c r="K9">
-        <v>1.012335570179777</v>
+        <v>1.034069682173724</v>
       </c>
       <c r="L9">
-        <v>1.000583007301439</v>
+        <v>1.031832651802432</v>
       </c>
       <c r="M9">
-        <v>0.9991756026348705</v>
+        <v>1.037447535025938</v>
       </c>
       <c r="N9">
-        <v>1.003152473594513</v>
+        <v>1.013720784517447</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9564231807793451</v>
+        <v>0.9975896663240412</v>
       </c>
       <c r="D10">
-        <v>0.984694741493891</v>
+        <v>1.015972154617596</v>
       </c>
       <c r="E10">
-        <v>0.9700077669009303</v>
+        <v>1.012602340261882</v>
       </c>
       <c r="F10">
-        <v>0.9664605263196167</v>
+        <v>1.017278750155534</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030416799239071</v>
+        <v>1.042636698088331</v>
       </c>
       <c r="J10">
-        <v>0.986479157406188</v>
+        <v>1.02589924295537</v>
       </c>
       <c r="K10">
-        <v>0.9993459472821009</v>
+        <v>1.030058893339459</v>
       </c>
       <c r="L10">
-        <v>0.9849405110621963</v>
+        <v>1.026747723481351</v>
       </c>
       <c r="M10">
-        <v>0.9814629535834504</v>
+        <v>1.031342885547929</v>
       </c>
       <c r="N10">
-        <v>0.9878800709604457</v>
+        <v>1.012156806193305</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9476584102177124</v>
+        <v>0.9942450700901455</v>
       </c>
       <c r="D11">
-        <v>0.9779498496592524</v>
+        <v>1.013600064821963</v>
       </c>
       <c r="E11">
-        <v>0.9619850602145953</v>
+        <v>1.009744439969891</v>
       </c>
       <c r="F11">
-        <v>0.9574575186173678</v>
+        <v>1.013965396006868</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027302025766936</v>
+        <v>1.04157241902558</v>
       </c>
       <c r="J11">
-        <v>0.9793832778258554</v>
+        <v>1.023859236247944</v>
       </c>
       <c r="K11">
-        <v>0.993299934232684</v>
+        <v>1.028269981871264</v>
       </c>
       <c r="L11">
-        <v>0.977661346314036</v>
+        <v>1.024484900739714</v>
       </c>
       <c r="M11">
-        <v>0.9732289353660482</v>
+        <v>1.028628665047526</v>
       </c>
       <c r="N11">
-        <v>0.9807741144172004</v>
+        <v>1.011459419875721</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.944297932277936</v>
+        <v>0.9929881692827123</v>
       </c>
       <c r="D12">
-        <v>0.9753664232751358</v>
+        <v>1.01270959471422</v>
       </c>
       <c r="E12">
-        <v>0.9589106751307195</v>
+        <v>1.008671825715397</v>
       </c>
       <c r="F12">
-        <v>0.9540076486397938</v>
+        <v>1.012721810753834</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026105097214314</v>
+        <v>1.041171114065427</v>
       </c>
       <c r="J12">
-        <v>0.9766622303993879</v>
+        <v>1.023092275760741</v>
       </c>
       <c r="K12">
-        <v>0.9909812862391917</v>
+        <v>1.027597283606358</v>
       </c>
       <c r="L12">
-        <v>0.9748698178368663</v>
+        <v>1.023634751927438</v>
       </c>
       <c r="M12">
-        <v>0.9700724197741564</v>
+        <v>1.027609273206777</v>
       </c>
       <c r="N12">
-        <v>0.9780492027912787</v>
+        <v>1.011197205154244</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9450237775248457</v>
+        <v>0.9932584510485216</v>
       </c>
       <c r="D13">
-        <v>0.9759243019543236</v>
+        <v>1.012901035125972</v>
       </c>
       <c r="E13">
-        <v>0.9595746497157974</v>
+        <v>1.008902415256346</v>
       </c>
       <c r="F13">
-        <v>0.9547527122112274</v>
+        <v>1.012989157312695</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026363744682932</v>
+        <v>1.041257470140927</v>
       </c>
       <c r="J13">
-        <v>0.9772499772663296</v>
+        <v>1.023257215526586</v>
       </c>
       <c r="K13">
-        <v>0.9914821208814587</v>
+        <v>1.027741957760413</v>
       </c>
       <c r="L13">
-        <v>0.9754727982794928</v>
+        <v>1.023817555650285</v>
       </c>
       <c r="M13">
-        <v>0.9707541864248176</v>
+        <v>1.027828452925544</v>
       </c>
       <c r="N13">
-        <v>0.9786377843261869</v>
+        <v>1.011253597164617</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9473828657310088</v>
+        <v>0.9941414761371263</v>
       </c>
       <c r="D14">
-        <v>0.9777379637285427</v>
+        <v>1.013526652133184</v>
       </c>
       <c r="E14">
-        <v>0.9617329404304802</v>
+        <v>1.009656006433057</v>
       </c>
       <c r="F14">
-        <v>0.9571746042799104</v>
+        <v>1.013862867263905</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0272039358583</v>
+        <v>1.041539370542672</v>
       </c>
       <c r="J14">
-        <v>0.9791601710658147</v>
+        <v>1.023796029580329</v>
       </c>
       <c r="K14">
-        <v>0.9931098243846307</v>
+        <v>1.028214546288496</v>
       </c>
       <c r="L14">
-        <v>0.9774324648574068</v>
+        <v>1.024414826563092</v>
       </c>
       <c r="M14">
-        <v>0.9729701044810949</v>
+        <v>1.028544633858503</v>
       </c>
       <c r="N14">
-        <v>0.9805506908199694</v>
+        <v>1.011437810746881</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9488219994047432</v>
+        <v>0.9946835824970016</v>
       </c>
       <c r="D15">
-        <v>0.978844726066799</v>
+        <v>1.013910859854405</v>
       </c>
       <c r="E15">
-        <v>0.9630497954930171</v>
+        <v>1.010118835291694</v>
       </c>
       <c r="F15">
-        <v>0.9586523092839621</v>
+        <v>1.014399463834107</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027716139279713</v>
+        <v>1.04171225831896</v>
       </c>
       <c r="J15">
-        <v>0.9803254131671092</v>
+        <v>1.024126776619754</v>
       </c>
       <c r="K15">
-        <v>0.99410272333679</v>
+        <v>1.028504623290355</v>
       </c>
       <c r="L15">
-        <v>0.978627858806243</v>
+        <v>1.024781533498029</v>
       </c>
       <c r="M15">
-        <v>0.9743219650270321</v>
+        <v>1.028984393728528</v>
       </c>
       <c r="N15">
-        <v>0.9817175876987032</v>
+        <v>1.011550885715384</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9569910231757797</v>
+        <v>0.9978096367068682</v>
       </c>
       <c r="D16">
-        <v>0.9851320471253289</v>
+        <v>1.01612829360365</v>
       </c>
       <c r="E16">
-        <v>0.970527732697842</v>
+        <v>1.0127904902593</v>
       </c>
       <c r="F16">
-        <v>0.9670440622726739</v>
+        <v>1.017496881832202</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030618214320417</v>
+        <v>1.042706504975577</v>
       </c>
       <c r="J16">
-        <v>0.9869388045341517</v>
+        <v>1.026033364286697</v>
       </c>
       <c r="K16">
-        <v>0.999737553684662</v>
+        <v>1.030176486210175</v>
       </c>
       <c r="L16">
-        <v>0.9854120065019134</v>
+        <v>1.026896574754741</v>
       </c>
       <c r="M16">
-        <v>0.9819964652654037</v>
+        <v>1.031521479183797</v>
       </c>
       <c r="N16">
-        <v>0.9883403708400536</v>
+        <v>1.012202652364864</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9619447412010936</v>
+        <v>0.9997454139701709</v>
       </c>
       <c r="D17">
-        <v>0.9889485815119237</v>
+        <v>1.017503024286265</v>
       </c>
       <c r="E17">
-        <v>0.9750647812366728</v>
+        <v>1.014447256455058</v>
       </c>
       <c r="F17">
-        <v>0.9721360566812072</v>
+        <v>1.019417644355616</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032373158017094</v>
+        <v>1.043319766168094</v>
       </c>
       <c r="J17">
-        <v>0.9909481778923349</v>
+        <v>1.027213379060424</v>
       </c>
       <c r="K17">
-        <v>1.003153197136833</v>
+        <v>1.031210967562587</v>
       </c>
       <c r="L17">
-        <v>0.9895246122922911</v>
+        <v>1.028206627611539</v>
       </c>
       <c r="M17">
-        <v>0.9866509409326398</v>
+        <v>1.033093567421281</v>
       </c>
       <c r="N17">
-        <v>0.9923554379682868</v>
+        <v>1.012605989073255</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9647771154485504</v>
+        <v>1.000865714849457</v>
       </c>
       <c r="D18">
-        <v>0.9911319876128266</v>
+        <v>1.018299183101844</v>
       </c>
       <c r="E18">
-        <v>0.9776597026604591</v>
+        <v>1.015406919754773</v>
       </c>
       <c r="F18">
-        <v>0.9750486140444813</v>
+        <v>1.020530220878419</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033374751865429</v>
+        <v>1.043673797314283</v>
       </c>
       <c r="J18">
-        <v>0.9932401748496753</v>
+        <v>1.027896056368307</v>
       </c>
       <c r="K18">
-        <v>1.005105570598415</v>
+        <v>1.03180935165239</v>
       </c>
       <c r="L18">
-        <v>0.991875532825697</v>
+        <v>1.028964905498104</v>
       </c>
       <c r="M18">
-        <v>0.9893124038263583</v>
+        <v>1.034003742208738</v>
       </c>
       <c r="N18">
-        <v>0.9946506898242021</v>
+        <v>1.012839312317109</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9657335884882352</v>
+        <v>1.001246237556091</v>
       </c>
       <c r="D19">
-        <v>0.9918695042548751</v>
+        <v>1.018569699263855</v>
       </c>
       <c r="E19">
-        <v>0.9785361157443739</v>
+        <v>1.015733020234271</v>
       </c>
       <c r="F19">
-        <v>0.9760323516314788</v>
+        <v>1.020908282432329</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033712667158643</v>
+        <v>1.04379389660929</v>
       </c>
       <c r="J19">
-        <v>0.9940140867976344</v>
+        <v>1.028127893647788</v>
       </c>
       <c r="K19">
-        <v>1.005764766246183</v>
+        <v>1.032012546043993</v>
       </c>
       <c r="L19">
-        <v>0.9926693267232356</v>
+        <v>1.029222479479991</v>
       </c>
       <c r="M19">
-        <v>0.9902111889890383</v>
+        <v>1.034312951749268</v>
       </c>
       <c r="N19">
-        <v>0.9954257008158963</v>
+        <v>1.012918545294518</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9614192475544637</v>
+        <v>0.9995386395686169</v>
       </c>
       <c r="D20">
-        <v>0.988543588744431</v>
+        <v>1.017356121241977</v>
       </c>
       <c r="E20">
-        <v>0.9745834046140383</v>
+        <v>1.014270198150792</v>
       </c>
       <c r="F20">
-        <v>0.9715957770115949</v>
+        <v>1.01921237336064</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032187181193793</v>
+        <v>1.043254350703096</v>
       </c>
       <c r="J20">
-        <v>0.9905229044393876</v>
+        <v>1.027087357478412</v>
       </c>
       <c r="K20">
-        <v>1.002790921723019</v>
+        <v>1.031100498465441</v>
       </c>
       <c r="L20">
-        <v>0.9890883986974376</v>
+        <v>1.028066680109532</v>
       </c>
       <c r="M20">
-        <v>0.9861571708297717</v>
+        <v>1.032925604292263</v>
       </c>
       <c r="N20">
-        <v>0.9919295605782569</v>
+        <v>1.0125629161417</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9466911991839613</v>
+        <v>0.9938818559073886</v>
       </c>
       <c r="D21">
-        <v>0.9772061356138433</v>
+        <v>1.01334268593328</v>
       </c>
       <c r="E21">
-        <v>0.9611001004723371</v>
+        <v>1.009434402748655</v>
       </c>
       <c r="F21">
-        <v>0.9564644697442584</v>
+        <v>1.013605942107729</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026957670038484</v>
+        <v>1.041456525088007</v>
       </c>
       <c r="J21">
-        <v>0.97860012664447</v>
+        <v>1.023637620187754</v>
       </c>
       <c r="K21">
-        <v>0.9926326065264964</v>
+        <v>1.028075610691674</v>
       </c>
       <c r="L21">
-        <v>0.9768579214264635</v>
+        <v>1.02423921508471</v>
       </c>
       <c r="M21">
-        <v>0.9723204001636621</v>
+        <v>1.028334050571776</v>
       </c>
       <c r="N21">
-        <v>0.9799898510713084</v>
+        <v>1.011383653269991</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9368146616687887</v>
+        <v>0.9902404974049377</v>
       </c>
       <c r="D22">
-        <v>0.9696190874707939</v>
+        <v>1.010764821786203</v>
       </c>
       <c r="E22">
-        <v>0.9520677813701286</v>
+        <v>1.006329630771997</v>
       </c>
       <c r="F22">
-        <v>0.946329083654824</v>
+        <v>1.010006191941083</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023435018263735</v>
+        <v>1.040291407432965</v>
       </c>
       <c r="J22">
-        <v>0.9706023829695678</v>
+        <v>1.021415102789708</v>
       </c>
       <c r="K22">
-        <v>0.9858174157030828</v>
+        <v>1.026125999857567</v>
       </c>
       <c r="L22">
-        <v>0.9686525859462861</v>
+        <v>1.021776730720102</v>
       </c>
       <c r="M22">
-        <v>0.963044409146351</v>
+        <v>1.025381996680391</v>
       </c>
       <c r="N22">
-        <v>0.9719807496830339</v>
+        <v>1.010623759359986</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9421145503933209</v>
+        <v>0.9921791528394066</v>
       </c>
       <c r="D23">
-        <v>0.9736887254779065</v>
+        <v>1.012136715893362</v>
       </c>
       <c r="E23">
-        <v>0.9569136596645287</v>
+        <v>1.007981825006821</v>
       </c>
       <c r="F23">
-        <v>0.9517667530485074</v>
+        <v>1.01192181421718</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025326696709756</v>
+        <v>1.040912436257203</v>
       </c>
       <c r="J23">
-        <v>0.9748942136836812</v>
+        <v>1.022598528589486</v>
       </c>
       <c r="K23">
-        <v>0.9894746964886419</v>
+        <v>1.027164182151029</v>
       </c>
       <c r="L23">
-        <v>0.9730559439149428</v>
+        <v>1.023087613995387</v>
       </c>
       <c r="M23">
-        <v>0.9680217107992816</v>
+        <v>1.026953310932405</v>
       </c>
       <c r="N23">
-        <v>0.9762786752890414</v>
+        <v>1.011028392406879</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9616568707555471</v>
+        <v>0.9996320991746812</v>
       </c>
       <c r="D24">
-        <v>0.9887267187864462</v>
+        <v>1.017422517981538</v>
       </c>
       <c r="E24">
-        <v>0.9748010760913081</v>
+        <v>1.014350223842285</v>
       </c>
       <c r="F24">
-        <v>0.9718400828251326</v>
+        <v>1.019305150455151</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032271283840613</v>
+        <v>1.043283920471548</v>
       </c>
       <c r="J24">
-        <v>0.9907152103900537</v>
+        <v>1.027144318497367</v>
       </c>
       <c r="K24">
-        <v>1.002954741031754</v>
+        <v>1.031150430154975</v>
       </c>
       <c r="L24">
-        <v>0.9892856519886578</v>
+        <v>1.028129934417624</v>
       </c>
       <c r="M24">
-        <v>0.9863804483797347</v>
+        <v>1.033001520566432</v>
       </c>
       <c r="N24">
-        <v>0.9921221396254307</v>
+        <v>1.012582384918541</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9821233776904489</v>
+        <v>1.007937722293237</v>
       </c>
       <c r="D25">
-        <v>1.004521262506787</v>
+        <v>1.023334212038568</v>
       </c>
       <c r="E25">
-        <v>0.9935634180187066</v>
+        <v>1.021479258605376</v>
       </c>
       <c r="F25">
-        <v>0.9929046387530992</v>
+        <v>1.027570276985523</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039475170269877</v>
+        <v>1.045892494866461</v>
       </c>
       <c r="J25">
-        <v>1.007267710934069</v>
+        <v>1.032200871847992</v>
       </c>
       <c r="K25">
-        <v>1.017049794818819</v>
+        <v>1.035580780142413</v>
       </c>
       <c r="L25">
-        <v>1.006262482220854</v>
+        <v>1.033753042202449</v>
       </c>
       <c r="M25">
-        <v>1.005614108804161</v>
+        <v>1.039755161442923</v>
       </c>
       <c r="N25">
-        <v>1.008698146618817</v>
+        <v>1.014310182230091</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014311240262708</v>
+        <v>1.041573871308939</v>
       </c>
       <c r="D2">
-        <v>1.027885133159949</v>
+        <v>1.042700715924044</v>
       </c>
       <c r="E2">
-        <v>1.026973675277489</v>
+        <v>1.050016769059546</v>
       </c>
       <c r="F2">
-        <v>1.033941016917233</v>
+        <v>1.061391677084075</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047865351092046</v>
+        <v>1.04126628743465</v>
       </c>
       <c r="J2">
-        <v>1.036072170720651</v>
+        <v>1.046654347908918</v>
       </c>
       <c r="K2">
-        <v>1.038969186348362</v>
+        <v>1.045476661899094</v>
       </c>
       <c r="L2">
-        <v>1.038069591389306</v>
+        <v>1.05277221746129</v>
       </c>
       <c r="M2">
-        <v>1.044946914767002</v>
+        <v>1.064115863913117</v>
       </c>
       <c r="N2">
-        <v>1.015632140959974</v>
+        <v>1.019421011382735</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.018804937955047</v>
+        <v>1.042521533354295</v>
       </c>
       <c r="D3">
-        <v>1.031101012437268</v>
+        <v>1.04339750614697</v>
       </c>
       <c r="E3">
-        <v>1.030860480194252</v>
+        <v>1.050890560040428</v>
       </c>
       <c r="F3">
-        <v>1.038448524095234</v>
+        <v>1.062419276010029</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049238896773933</v>
+        <v>1.041507185954621</v>
       </c>
       <c r="J3">
-        <v>1.038795765833167</v>
+        <v>1.04724810323241</v>
       </c>
       <c r="K3">
-        <v>1.041350833533348</v>
+        <v>1.0459846359876</v>
       </c>
       <c r="L3">
-        <v>1.041113153901102</v>
+        <v>1.053458212026311</v>
       </c>
       <c r="M3">
-        <v>1.048611994314547</v>
+        <v>1.064957537986113</v>
       </c>
       <c r="N3">
-        <v>1.016561599771907</v>
+        <v>1.019621419241437</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.021654142479571</v>
+        <v>1.043135150904895</v>
       </c>
       <c r="D4">
-        <v>1.033143012499535</v>
+        <v>1.043848696072581</v>
       </c>
       <c r="E4">
-        <v>1.033330616604054</v>
+        <v>1.051456731556323</v>
       </c>
       <c r="F4">
-        <v>1.041313603689554</v>
+        <v>1.063085252187491</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050101489145722</v>
+        <v>1.041662112161525</v>
       </c>
       <c r="J4">
-        <v>1.040519696970513</v>
+        <v>1.047632092363693</v>
       </c>
       <c r="K4">
-        <v>1.042857232511484</v>
+        <v>1.0463129729291</v>
       </c>
       <c r="L4">
-        <v>1.043042748186227</v>
+        <v>1.0539022260982</v>
       </c>
       <c r="M4">
-        <v>1.050937723996519</v>
+        <v>1.06550259705826</v>
       </c>
       <c r="N4">
-        <v>1.017149608681428</v>
+        <v>1.019750945779433</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.022838428491234</v>
+        <v>1.043393214614813</v>
       </c>
       <c r="D5">
-        <v>1.033992447375851</v>
+        <v>1.044038451663088</v>
       </c>
       <c r="E5">
-        <v>1.034358680368447</v>
+        <v>1.05169493326036</v>
       </c>
       <c r="F5">
-        <v>1.042506172008243</v>
+        <v>1.063365479007642</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050458005542033</v>
+        <v>1.04172701490775</v>
       </c>
       <c r="J5">
-        <v>1.041235517774548</v>
+        <v>1.047793470174912</v>
       </c>
       <c r="K5">
-        <v>1.043482456431108</v>
+        <v>1.046450919612542</v>
       </c>
       <c r="L5">
-        <v>1.043844722764068</v>
+        <v>1.054088919698227</v>
       </c>
       <c r="M5">
-        <v>1.051904851331426</v>
+        <v>1.065731844094879</v>
       </c>
       <c r="N5">
-        <v>1.01739368782652</v>
+        <v>1.019805362273262</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.023036496326319</v>
+        <v>1.043436550420239</v>
       </c>
       <c r="D6">
-        <v>1.034134550304219</v>
+        <v>1.044070316842892</v>
       </c>
       <c r="E6">
-        <v>1.034530698291365</v>
+        <v>1.051734939082109</v>
       </c>
       <c r="F6">
-        <v>1.042705723323869</v>
+        <v>1.063412544975624</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050517511735202</v>
+        <v>1.041737898966316</v>
       </c>
       <c r="J6">
-        <v>1.041355191985758</v>
+        <v>1.047820563190398</v>
       </c>
       <c r="K6">
-        <v>1.043586967969639</v>
+        <v>1.04647407638936</v>
       </c>
       <c r="L6">
-        <v>1.043978845212088</v>
+        <v>1.054120268111159</v>
       </c>
       <c r="M6">
-        <v>1.052066624286714</v>
+        <v>1.065770341760992</v>
       </c>
       <c r="N6">
-        <v>1.0174344894147</v>
+        <v>1.019814496892975</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.021670019458351</v>
+        <v>1.043138598777355</v>
       </c>
       <c r="D7">
-        <v>1.033154397767672</v>
+        <v>1.043851231301613</v>
       </c>
       <c r="E7">
-        <v>1.03334439396443</v>
+        <v>1.051459913700826</v>
       </c>
       <c r="F7">
-        <v>1.041329585084324</v>
+        <v>1.063088995609391</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050106276777629</v>
+        <v>1.04166298029261</v>
       </c>
       <c r="J7">
-        <v>1.04052929649411</v>
+        <v>1.047634248904261</v>
       </c>
       <c r="K7">
-        <v>1.042865618171844</v>
+        <v>1.046314816519108</v>
       </c>
       <c r="L7">
-        <v>1.043053500077754</v>
+        <v>1.053904720590221</v>
       </c>
       <c r="M7">
-        <v>1.050950688021725</v>
+        <v>1.065505659860252</v>
       </c>
       <c r="N7">
-        <v>1.017152882219691</v>
+        <v>1.019751673039027</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.015842325759914</v>
+        <v>1.041894051282091</v>
       </c>
       <c r="D8">
-        <v>1.028980184673123</v>
+        <v>1.042936132404471</v>
       </c>
       <c r="E8">
-        <v>1.028296758071154</v>
+        <v>1.05031191057938</v>
       </c>
       <c r="F8">
-        <v>1.035475299604481</v>
+        <v>1.061738740641816</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048335062055391</v>
+        <v>1.041347896876574</v>
       </c>
       <c r="J8">
-        <v>1.037000748225019</v>
+        <v>1.046855053306987</v>
       </c>
       <c r="K8">
-        <v>1.039781403961117</v>
+        <v>1.045648407359087</v>
       </c>
       <c r="L8">
-        <v>1.039106602475356</v>
+        <v>1.053004025093537</v>
       </c>
       <c r="M8">
-        <v>1.046195255829256</v>
+        <v>1.064400219936295</v>
       </c>
       <c r="N8">
-        <v>1.015949089616048</v>
+        <v>1.019488771145569</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.005101715326734</v>
+        <v>1.039704231846259</v>
       </c>
       <c r="D9">
-        <v>1.021313184957947</v>
+        <v>1.041326118846772</v>
       </c>
       <c r="E9">
-        <v>1.019041130356999</v>
+        <v>1.048294935949314</v>
       </c>
       <c r="F9">
-        <v>1.02474354233114</v>
+        <v>1.05936751951944</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045006242921554</v>
+        <v>1.040785416435291</v>
       </c>
       <c r="J9">
-        <v>1.030475596267564</v>
+        <v>1.045480439640843</v>
       </c>
       <c r="K9">
-        <v>1.034069682173724</v>
+        <v>1.044471419471694</v>
       </c>
       <c r="L9">
-        <v>1.031832651802432</v>
+        <v>1.05141792088551</v>
       </c>
       <c r="M9">
-        <v>1.037447535025938</v>
+        <v>1.062455707453114</v>
       </c>
       <c r="N9">
-        <v>1.013720784517447</v>
+        <v>1.019024366350745</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9975896663240412</v>
+        <v>1.038246577683845</v>
       </c>
       <c r="D10">
-        <v>1.015972154617596</v>
+        <v>1.040254537861833</v>
       </c>
       <c r="E10">
-        <v>1.012602340261882</v>
+        <v>1.046954360715351</v>
       </c>
       <c r="F10">
-        <v>1.017278750155534</v>
+        <v>1.05779222027015</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042636698088331</v>
+        <v>1.04040557564446</v>
       </c>
       <c r="J10">
-        <v>1.02589924295537</v>
+        <v>1.044563025686858</v>
       </c>
       <c r="K10">
-        <v>1.030058893339459</v>
+        <v>1.043685004027953</v>
       </c>
       <c r="L10">
-        <v>1.026747723481351</v>
+        <v>1.05036127185251</v>
       </c>
       <c r="M10">
-        <v>1.031342885547929</v>
+        <v>1.06116172297164</v>
       </c>
       <c r="N10">
-        <v>1.012156806193305</v>
+        <v>1.018714019955692</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9942450700901455</v>
+        <v>1.037615935762436</v>
       </c>
       <c r="D11">
-        <v>1.013600064821963</v>
+        <v>1.039790964961879</v>
       </c>
       <c r="E11">
-        <v>1.009744439969891</v>
+        <v>1.046374858109119</v>
       </c>
       <c r="F11">
-        <v>1.013965396006868</v>
+        <v>1.057111420418269</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04157241902558</v>
+        <v>1.040239955214969</v>
       </c>
       <c r="J11">
-        <v>1.023859236247944</v>
+        <v>1.044165547636561</v>
       </c>
       <c r="K11">
-        <v>1.028269981871264</v>
+        <v>1.043344071439333</v>
       </c>
       <c r="L11">
-        <v>1.024484900739714</v>
+        <v>1.049903921700962</v>
       </c>
       <c r="M11">
-        <v>1.028628665047526</v>
+        <v>1.060601985227196</v>
       </c>
       <c r="N11">
-        <v>1.011459419875721</v>
+        <v>1.018579464817077</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9929881692827123</v>
+        <v>1.037381767987164</v>
       </c>
       <c r="D12">
-        <v>1.01270959471422</v>
+        <v>1.039618839004599</v>
       </c>
       <c r="E12">
-        <v>1.008671825715397</v>
+        <v>1.046159752735959</v>
       </c>
       <c r="F12">
-        <v>1.012721810753834</v>
+        <v>1.056858739716452</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041171114065427</v>
+        <v>1.040178264570405</v>
       </c>
       <c r="J12">
-        <v>1.023092275760741</v>
+        <v>1.04401787259398</v>
       </c>
       <c r="K12">
-        <v>1.027597283606358</v>
+        <v>1.043217373200194</v>
       </c>
       <c r="L12">
-        <v>1.023634751927438</v>
+        <v>1.049734070326208</v>
       </c>
       <c r="M12">
-        <v>1.027609273206777</v>
+        <v>1.060394159739103</v>
       </c>
       <c r="N12">
-        <v>1.011197205154244</v>
+        <v>1.018529459395529</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9932584510485216</v>
+        <v>1.03743199410459</v>
       </c>
       <c r="D13">
-        <v>1.012901035125972</v>
+        <v>1.039655757615563</v>
       </c>
       <c r="E13">
-        <v>1.008902415256346</v>
+        <v>1.046205886866333</v>
       </c>
       <c r="F13">
-        <v>1.012989157312695</v>
+        <v>1.056912931576628</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041257470140927</v>
+        <v>1.040191505191914</v>
       </c>
       <c r="J13">
-        <v>1.023257215526586</v>
+        <v>1.044049550917131</v>
       </c>
       <c r="K13">
-        <v>1.027741957760413</v>
+        <v>1.043244553135862</v>
       </c>
       <c r="L13">
-        <v>1.023817555650285</v>
+        <v>1.04977050270314</v>
       </c>
       <c r="M13">
-        <v>1.027828452925544</v>
+        <v>1.060438735102755</v>
       </c>
       <c r="N13">
-        <v>1.011253597164617</v>
+        <v>1.018540186883311</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9941414761371263</v>
+        <v>1.037596577729934</v>
       </c>
       <c r="D14">
-        <v>1.013526652133184</v>
+        <v>1.039776735629943</v>
       </c>
       <c r="E14">
-        <v>1.009656006433057</v>
+        <v>1.046357074412138</v>
       </c>
       <c r="F14">
-        <v>1.013862867263905</v>
+        <v>1.057090529693361</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041539370542672</v>
+        <v>1.040234859349915</v>
       </c>
       <c r="J14">
-        <v>1.023796029580329</v>
+        <v>1.044153341460241</v>
       </c>
       <c r="K14">
-        <v>1.028214546288496</v>
+        <v>1.043333599756736</v>
       </c>
       <c r="L14">
-        <v>1.024414826563092</v>
+        <v>1.049889881139824</v>
       </c>
       <c r="M14">
-        <v>1.028544633858503</v>
+        <v>1.060584804546763</v>
       </c>
       <c r="N14">
-        <v>1.011437810746881</v>
+        <v>1.018575331874574</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9946835824970016</v>
+        <v>1.037697993852659</v>
       </c>
       <c r="D15">
-        <v>1.013910859854405</v>
+        <v>1.039851282914997</v>
       </c>
       <c r="E15">
-        <v>1.010118835291694</v>
+        <v>1.046450245655176</v>
       </c>
       <c r="F15">
-        <v>1.014399463834107</v>
+        <v>1.057199980113837</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04171225831896</v>
+        <v>1.040261548520499</v>
       </c>
       <c r="J15">
-        <v>1.024126776619754</v>
+        <v>1.044217285759059</v>
       </c>
       <c r="K15">
-        <v>1.028504623290355</v>
+        <v>1.04338845630082</v>
       </c>
       <c r="L15">
-        <v>1.024781533498029</v>
+        <v>1.049963437982926</v>
       </c>
       <c r="M15">
-        <v>1.028984393728528</v>
+        <v>1.060674814181828</v>
       </c>
       <c r="N15">
-        <v>1.011550885715384</v>
+        <v>1.018596982475093</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9978096367068682</v>
+        <v>1.038288442586434</v>
       </c>
       <c r="D16">
-        <v>1.01612829360365</v>
+        <v>1.040285312807782</v>
       </c>
       <c r="E16">
-        <v>1.0127904902593</v>
+        <v>1.046992841043132</v>
       </c>
       <c r="F16">
-        <v>1.017496881832202</v>
+        <v>1.057837430515483</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042706504975577</v>
+        <v>1.040416543203079</v>
       </c>
       <c r="J16">
-        <v>1.026033364286697</v>
+        <v>1.044589400183261</v>
       </c>
       <c r="K16">
-        <v>1.030176486210175</v>
+        <v>1.043707622043789</v>
       </c>
       <c r="L16">
-        <v>1.026896574754741</v>
+        <v>1.050391628669378</v>
       </c>
       <c r="M16">
-        <v>1.031521479183797</v>
+        <v>1.061198882932925</v>
       </c>
       <c r="N16">
-        <v>1.012202652364864</v>
+        <v>1.018722946320304</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9997454139701709</v>
+        <v>1.038658958454751</v>
       </c>
       <c r="D17">
-        <v>1.017503024286265</v>
+        <v>1.040557683957168</v>
       </c>
       <c r="E17">
-        <v>1.014447256455058</v>
+        <v>1.04733345873787</v>
       </c>
       <c r="F17">
-        <v>1.019417644355616</v>
+        <v>1.058237639176823</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043319766168094</v>
+        <v>1.040513460549354</v>
       </c>
       <c r="J17">
-        <v>1.027213379060424</v>
+        <v>1.044822756262426</v>
       </c>
       <c r="K17">
-        <v>1.031210967562587</v>
+        <v>1.043907717228758</v>
       </c>
       <c r="L17">
-        <v>1.028206627611539</v>
+        <v>1.050660271775982</v>
       </c>
       <c r="M17">
-        <v>1.033093567421281</v>
+        <v>1.061527769664147</v>
       </c>
       <c r="N17">
-        <v>1.012605989073255</v>
+        <v>1.018801914018523</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000865714849457</v>
+        <v>1.038875125364012</v>
       </c>
       <c r="D18">
-        <v>1.018299183101844</v>
+        <v>1.040716594723949</v>
       </c>
       <c r="E18">
-        <v>1.015406919754773</v>
+        <v>1.04753222930196</v>
       </c>
       <c r="F18">
-        <v>1.020530220878419</v>
+        <v>1.058471200934243</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043673797314283</v>
+        <v>1.040569880111321</v>
       </c>
       <c r="J18">
-        <v>1.027896056368307</v>
+        <v>1.044958846499193</v>
       </c>
       <c r="K18">
-        <v>1.03180935165239</v>
+        <v>1.044024389797175</v>
       </c>
       <c r="L18">
-        <v>1.028964905498104</v>
+        <v>1.050816984625712</v>
       </c>
       <c r="M18">
-        <v>1.034003742208738</v>
+        <v>1.061719658281839</v>
       </c>
       <c r="N18">
-        <v>1.012839312317109</v>
+        <v>1.018847957815288</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.001246237556091</v>
+        <v>1.038948841366339</v>
       </c>
       <c r="D19">
-        <v>1.018569699263855</v>
+        <v>1.040770786153304</v>
       </c>
       <c r="E19">
-        <v>1.015733020234271</v>
+        <v>1.047600020840516</v>
       </c>
       <c r="F19">
-        <v>1.020908282432329</v>
+        <v>1.058550860934762</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04379389660929</v>
+        <v>1.040589098935649</v>
       </c>
       <c r="J19">
-        <v>1.028127893647788</v>
+        <v>1.045005245925922</v>
       </c>
       <c r="K19">
-        <v>1.032012546043993</v>
+        <v>1.044064165391367</v>
       </c>
       <c r="L19">
-        <v>1.029222479479991</v>
+        <v>1.0508704226611</v>
       </c>
       <c r="M19">
-        <v>1.034312951749268</v>
+        <v>1.061785096564594</v>
       </c>
       <c r="N19">
-        <v>1.012918545294518</v>
+        <v>1.018863654712374</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9995386395686169</v>
+        <v>1.038619200299537</v>
       </c>
       <c r="D20">
-        <v>1.017356121241977</v>
+        <v>1.040528456831378</v>
       </c>
       <c r="E20">
-        <v>1.014270198150792</v>
+        <v>1.047296903948844</v>
       </c>
       <c r="F20">
-        <v>1.01921237336064</v>
+        <v>1.058194687449864</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043254350703096</v>
+        <v>1.040503073680799</v>
       </c>
       <c r="J20">
-        <v>1.027087357478412</v>
+        <v>1.044797721676242</v>
       </c>
       <c r="K20">
-        <v>1.031100498465441</v>
+        <v>1.043886252995755</v>
       </c>
       <c r="L20">
-        <v>1.028066680109532</v>
+        <v>1.050631447057987</v>
       </c>
       <c r="M20">
-        <v>1.032925604292263</v>
+        <v>1.061492477580751</v>
       </c>
       <c r="N20">
-        <v>1.0125629161417</v>
+        <v>1.018793443259284</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9938818559073886</v>
+        <v>1.03754810971991</v>
       </c>
       <c r="D21">
-        <v>1.01334268593328</v>
+        <v>1.039741108797515</v>
       </c>
       <c r="E21">
-        <v>1.009434402748655</v>
+        <v>1.046312549361604</v>
       </c>
       <c r="F21">
-        <v>1.013605942107729</v>
+        <v>1.057038225981268</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041456525088007</v>
+        <v>1.040222097370953</v>
       </c>
       <c r="J21">
-        <v>1.023637620187754</v>
+        <v>1.044122778664081</v>
       </c>
       <c r="K21">
-        <v>1.028075610691674</v>
+        <v>1.043307379415151</v>
       </c>
       <c r="L21">
-        <v>1.02423921508471</v>
+        <v>1.049854726362318</v>
       </c>
       <c r="M21">
-        <v>1.028334050571776</v>
+        <v>1.060541788353331</v>
       </c>
       <c r="N21">
-        <v>1.011383653269991</v>
+        <v>1.018564983255885</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9902404974049377</v>
+        <v>1.036875139942831</v>
       </c>
       <c r="D22">
-        <v>1.010764821786203</v>
+        <v>1.039246452334087</v>
       </c>
       <c r="E22">
-        <v>1.006329630771997</v>
+        <v>1.045694501673035</v>
       </c>
       <c r="F22">
-        <v>1.010006191941083</v>
+        <v>1.056312262777855</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040291407432965</v>
+        <v>1.040044442413296</v>
       </c>
       <c r="J22">
-        <v>1.021415102789708</v>
+        <v>1.043698218916301</v>
       </c>
       <c r="K22">
-        <v>1.026125999857567</v>
+        <v>1.042943067864527</v>
       </c>
       <c r="L22">
-        <v>1.021776730720102</v>
+        <v>1.049366538517445</v>
       </c>
       <c r="M22">
-        <v>1.025381996680391</v>
+        <v>1.059944550551938</v>
       </c>
       <c r="N22">
-        <v>1.010623759359986</v>
+        <v>1.018421193145324</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9921791528394066</v>
+        <v>1.03723184938558</v>
       </c>
       <c r="D23">
-        <v>1.012136715893362</v>
+        <v>1.039508642602257</v>
       </c>
       <c r="E23">
-        <v>1.007981825006821</v>
+        <v>1.046022059001919</v>
       </c>
       <c r="F23">
-        <v>1.01192181421718</v>
+        <v>1.05669700023239</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040912436257203</v>
+        <v>1.040138714733062</v>
       </c>
       <c r="J23">
-        <v>1.022598528589486</v>
+        <v>1.043923304402391</v>
       </c>
       <c r="K23">
-        <v>1.027164182151029</v>
+        <v>1.043136229280847</v>
       </c>
       <c r="L23">
-        <v>1.023087613995387</v>
+        <v>1.049625319968732</v>
       </c>
       <c r="M23">
-        <v>1.026953310932405</v>
+        <v>1.060261110052058</v>
       </c>
       <c r="N23">
-        <v>1.011028392406879</v>
+        <v>1.018497432936418</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9996320991746812</v>
+        <v>1.038637165140119</v>
       </c>
       <c r="D24">
-        <v>1.017422517981538</v>
+        <v>1.040541663184026</v>
       </c>
       <c r="E24">
-        <v>1.014350223842285</v>
+        <v>1.047313421194105</v>
       </c>
       <c r="F24">
-        <v>1.019305150455151</v>
+        <v>1.058214095094681</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043283920471548</v>
+        <v>1.040507767401638</v>
       </c>
       <c r="J24">
-        <v>1.027144318497367</v>
+        <v>1.044809033797463</v>
       </c>
       <c r="K24">
-        <v>1.031150430154975</v>
+        <v>1.043895951881061</v>
       </c>
       <c r="L24">
-        <v>1.028129934417624</v>
+        <v>1.050644471652159</v>
       </c>
       <c r="M24">
-        <v>1.033001520566432</v>
+        <v>1.061508424385624</v>
       </c>
       <c r="N24">
-        <v>1.012582384918541</v>
+        <v>1.018797270882476</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.007937722293237</v>
+        <v>1.040269964253344</v>
       </c>
       <c r="D25">
-        <v>1.023334212038568</v>
+        <v>1.041742041006325</v>
       </c>
       <c r="E25">
-        <v>1.021479258605376</v>
+        <v>1.048815659331894</v>
       </c>
       <c r="F25">
-        <v>1.027570276985523</v>
+        <v>1.059979570014796</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045892494866461</v>
+        <v>1.040931688804734</v>
       </c>
       <c r="J25">
-        <v>1.032200871847992</v>
+        <v>1.045835991128318</v>
       </c>
       <c r="K25">
-        <v>1.035580780142413</v>
+        <v>1.044776012494752</v>
       </c>
       <c r="L25">
-        <v>1.033753042202449</v>
+        <v>1.051827838166098</v>
       </c>
       <c r="M25">
-        <v>1.039755161442923</v>
+        <v>1.06295799961386</v>
       </c>
       <c r="N25">
-        <v>1.014310182230091</v>
+        <v>1.019144558725134</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041573871308939</v>
+        <v>1.014311240262709</v>
       </c>
       <c r="D2">
-        <v>1.042700715924044</v>
+        <v>1.027885133159949</v>
       </c>
       <c r="E2">
-        <v>1.050016769059546</v>
+        <v>1.026973675277489</v>
       </c>
       <c r="F2">
-        <v>1.061391677084075</v>
+        <v>1.033941016917233</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04126628743465</v>
+        <v>1.047865351092046</v>
       </c>
       <c r="J2">
-        <v>1.046654347908918</v>
+        <v>1.036072170720651</v>
       </c>
       <c r="K2">
-        <v>1.045476661899094</v>
+        <v>1.038969186348362</v>
       </c>
       <c r="L2">
-        <v>1.05277221746129</v>
+        <v>1.038069591389306</v>
       </c>
       <c r="M2">
-        <v>1.064115863913117</v>
+        <v>1.044946914767002</v>
       </c>
       <c r="N2">
-        <v>1.019421011382735</v>
+        <v>1.015632140959974</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042521533354295</v>
+        <v>1.018804937955047</v>
       </c>
       <c r="D3">
-        <v>1.04339750614697</v>
+        <v>1.031101012437268</v>
       </c>
       <c r="E3">
-        <v>1.050890560040428</v>
+        <v>1.030860480194252</v>
       </c>
       <c r="F3">
-        <v>1.062419276010029</v>
+        <v>1.038448524095234</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041507185954621</v>
+        <v>1.049238896773933</v>
       </c>
       <c r="J3">
-        <v>1.04724810323241</v>
+        <v>1.038795765833166</v>
       </c>
       <c r="K3">
-        <v>1.0459846359876</v>
+        <v>1.041350833533348</v>
       </c>
       <c r="L3">
-        <v>1.053458212026311</v>
+        <v>1.041113153901102</v>
       </c>
       <c r="M3">
-        <v>1.064957537986113</v>
+        <v>1.048611994314547</v>
       </c>
       <c r="N3">
-        <v>1.019621419241437</v>
+        <v>1.016561599771907</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043135150904895</v>
+        <v>1.021654142479571</v>
       </c>
       <c r="D4">
-        <v>1.043848696072581</v>
+        <v>1.033143012499536</v>
       </c>
       <c r="E4">
-        <v>1.051456731556323</v>
+        <v>1.033330616604054</v>
       </c>
       <c r="F4">
-        <v>1.063085252187491</v>
+        <v>1.041313603689554</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041662112161525</v>
+        <v>1.050101489145722</v>
       </c>
       <c r="J4">
-        <v>1.047632092363693</v>
+        <v>1.040519696970513</v>
       </c>
       <c r="K4">
-        <v>1.0463129729291</v>
+        <v>1.042857232511484</v>
       </c>
       <c r="L4">
-        <v>1.0539022260982</v>
+        <v>1.043042748186227</v>
       </c>
       <c r="M4">
-        <v>1.06550259705826</v>
+        <v>1.050937723996519</v>
       </c>
       <c r="N4">
-        <v>1.019750945779433</v>
+        <v>1.017149608681428</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043393214614813</v>
+        <v>1.022838428491235</v>
       </c>
       <c r="D5">
-        <v>1.044038451663088</v>
+        <v>1.033992447375851</v>
       </c>
       <c r="E5">
-        <v>1.05169493326036</v>
+        <v>1.034358680368447</v>
       </c>
       <c r="F5">
-        <v>1.063365479007642</v>
+        <v>1.042506172008244</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04172701490775</v>
+        <v>1.050458005542033</v>
       </c>
       <c r="J5">
-        <v>1.047793470174912</v>
+        <v>1.041235517774548</v>
       </c>
       <c r="K5">
-        <v>1.046450919612542</v>
+        <v>1.043482456431108</v>
       </c>
       <c r="L5">
-        <v>1.054088919698227</v>
+        <v>1.043844722764068</v>
       </c>
       <c r="M5">
-        <v>1.065731844094879</v>
+        <v>1.051904851331426</v>
       </c>
       <c r="N5">
-        <v>1.019805362273262</v>
+        <v>1.017393687826521</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043436550420239</v>
+        <v>1.023036496326319</v>
       </c>
       <c r="D6">
-        <v>1.044070316842892</v>
+        <v>1.03413455030422</v>
       </c>
       <c r="E6">
-        <v>1.051734939082109</v>
+        <v>1.034530698291365</v>
       </c>
       <c r="F6">
-        <v>1.063412544975624</v>
+        <v>1.042705723323869</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041737898966316</v>
+        <v>1.050517511735202</v>
       </c>
       <c r="J6">
-        <v>1.047820563190398</v>
+        <v>1.041355191985758</v>
       </c>
       <c r="K6">
-        <v>1.04647407638936</v>
+        <v>1.043586967969639</v>
       </c>
       <c r="L6">
-        <v>1.054120268111159</v>
+        <v>1.043978845212088</v>
       </c>
       <c r="M6">
-        <v>1.065770341760992</v>
+        <v>1.052066624286714</v>
       </c>
       <c r="N6">
-        <v>1.019814496892975</v>
+        <v>1.0174344894147</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043138598777355</v>
+        <v>1.021670019458351</v>
       </c>
       <c r="D7">
-        <v>1.043851231301613</v>
+        <v>1.033154397767673</v>
       </c>
       <c r="E7">
-        <v>1.051459913700826</v>
+        <v>1.03334439396443</v>
       </c>
       <c r="F7">
-        <v>1.063088995609391</v>
+        <v>1.041329585084324</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04166298029261</v>
+        <v>1.050106276777629</v>
       </c>
       <c r="J7">
-        <v>1.047634248904261</v>
+        <v>1.04052929649411</v>
       </c>
       <c r="K7">
-        <v>1.046314816519108</v>
+        <v>1.042865618171844</v>
       </c>
       <c r="L7">
-        <v>1.053904720590221</v>
+        <v>1.043053500077754</v>
       </c>
       <c r="M7">
-        <v>1.065505659860252</v>
+        <v>1.050950688021725</v>
       </c>
       <c r="N7">
-        <v>1.019751673039027</v>
+        <v>1.01715288221969</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041894051282091</v>
+        <v>1.015842325759914</v>
       </c>
       <c r="D8">
-        <v>1.042936132404471</v>
+        <v>1.028980184673123</v>
       </c>
       <c r="E8">
-        <v>1.05031191057938</v>
+        <v>1.028296758071154</v>
       </c>
       <c r="F8">
-        <v>1.061738740641816</v>
+        <v>1.035475299604481</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041347896876574</v>
+        <v>1.048335062055391</v>
       </c>
       <c r="J8">
-        <v>1.046855053306987</v>
+        <v>1.037000748225019</v>
       </c>
       <c r="K8">
-        <v>1.045648407359087</v>
+        <v>1.039781403961117</v>
       </c>
       <c r="L8">
-        <v>1.053004025093537</v>
+        <v>1.039106602475355</v>
       </c>
       <c r="M8">
-        <v>1.064400219936295</v>
+        <v>1.046195255829255</v>
       </c>
       <c r="N8">
-        <v>1.019488771145569</v>
+        <v>1.015949089616048</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039704231846259</v>
+        <v>1.005101715326734</v>
       </c>
       <c r="D9">
-        <v>1.041326118846772</v>
+        <v>1.021313184957946</v>
       </c>
       <c r="E9">
-        <v>1.048294935949314</v>
+        <v>1.019041130356998</v>
       </c>
       <c r="F9">
-        <v>1.05936751951944</v>
+        <v>1.024743542331139</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040785416435291</v>
+        <v>1.045006242921554</v>
       </c>
       <c r="J9">
-        <v>1.045480439640843</v>
+        <v>1.030475596267564</v>
       </c>
       <c r="K9">
-        <v>1.044471419471694</v>
+        <v>1.034069682173723</v>
       </c>
       <c r="L9">
-        <v>1.05141792088551</v>
+        <v>1.031832651802431</v>
       </c>
       <c r="M9">
-        <v>1.062455707453114</v>
+        <v>1.037447535025937</v>
       </c>
       <c r="N9">
-        <v>1.019024366350745</v>
+        <v>1.013720784517447</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.038246577683845</v>
+        <v>0.9975896663240424</v>
       </c>
       <c r="D10">
-        <v>1.040254537861833</v>
+        <v>1.015972154617597</v>
       </c>
       <c r="E10">
-        <v>1.046954360715351</v>
+        <v>1.012602340261883</v>
       </c>
       <c r="F10">
-        <v>1.05779222027015</v>
+        <v>1.017278750155535</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04040557564446</v>
+        <v>1.042636698088332</v>
       </c>
       <c r="J10">
-        <v>1.044563025686858</v>
+        <v>1.025899242955371</v>
       </c>
       <c r="K10">
-        <v>1.043685004027953</v>
+        <v>1.030058893339461</v>
       </c>
       <c r="L10">
-        <v>1.05036127185251</v>
+        <v>1.026747723481352</v>
       </c>
       <c r="M10">
-        <v>1.06116172297164</v>
+        <v>1.03134288554793</v>
       </c>
       <c r="N10">
-        <v>1.018714019955692</v>
+        <v>1.012156806193306</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037615935762436</v>
+        <v>0.9942450700901443</v>
       </c>
       <c r="D11">
-        <v>1.039790964961879</v>
+        <v>1.013600064821961</v>
       </c>
       <c r="E11">
-        <v>1.046374858109119</v>
+        <v>1.00974443996989</v>
       </c>
       <c r="F11">
-        <v>1.057111420418269</v>
+        <v>1.013965396006867</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040239955214969</v>
+        <v>1.041572419025579</v>
       </c>
       <c r="J11">
-        <v>1.044165547636561</v>
+        <v>1.023859236247943</v>
       </c>
       <c r="K11">
-        <v>1.043344071439333</v>
+        <v>1.028269981871263</v>
       </c>
       <c r="L11">
-        <v>1.049903921700962</v>
+        <v>1.024484900739713</v>
       </c>
       <c r="M11">
-        <v>1.060601985227196</v>
+        <v>1.028628665047526</v>
       </c>
       <c r="N11">
-        <v>1.018579464817077</v>
+        <v>1.011459419875721</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037381767987164</v>
+        <v>0.9929881692827115</v>
       </c>
       <c r="D12">
-        <v>1.039618839004599</v>
+        <v>1.01270959471422</v>
       </c>
       <c r="E12">
-        <v>1.046159752735959</v>
+        <v>1.008671825715396</v>
       </c>
       <c r="F12">
-        <v>1.056858739716452</v>
+        <v>1.012721810753833</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040178264570405</v>
+        <v>1.041171114065426</v>
       </c>
       <c r="J12">
-        <v>1.04401787259398</v>
+        <v>1.02309227576074</v>
       </c>
       <c r="K12">
-        <v>1.043217373200194</v>
+        <v>1.027597283606358</v>
       </c>
       <c r="L12">
-        <v>1.049734070326208</v>
+        <v>1.023634751927437</v>
       </c>
       <c r="M12">
-        <v>1.060394159739103</v>
+        <v>1.027609273206776</v>
       </c>
       <c r="N12">
-        <v>1.018529459395529</v>
+        <v>1.011197205154244</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03743199410459</v>
+        <v>0.993258451048523</v>
       </c>
       <c r="D13">
-        <v>1.039655757615563</v>
+        <v>1.012901035125973</v>
       </c>
       <c r="E13">
-        <v>1.046205886866333</v>
+        <v>1.008902415256347</v>
       </c>
       <c r="F13">
-        <v>1.056912931576628</v>
+        <v>1.012989157312697</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040191505191914</v>
+        <v>1.041257470140927</v>
       </c>
       <c r="J13">
-        <v>1.044049550917131</v>
+        <v>1.023257215526588</v>
       </c>
       <c r="K13">
-        <v>1.043244553135862</v>
+        <v>1.027741957760413</v>
       </c>
       <c r="L13">
-        <v>1.04977050270314</v>
+        <v>1.023817555650286</v>
       </c>
       <c r="M13">
-        <v>1.060438735102755</v>
+        <v>1.027828452925545</v>
       </c>
       <c r="N13">
-        <v>1.018540186883311</v>
+        <v>1.011253597164617</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037596577729934</v>
+        <v>0.9941414761371266</v>
       </c>
       <c r="D14">
-        <v>1.039776735629943</v>
+        <v>1.013526652133184</v>
       </c>
       <c r="E14">
-        <v>1.046357074412138</v>
+        <v>1.009656006433057</v>
       </c>
       <c r="F14">
-        <v>1.057090529693361</v>
+        <v>1.013862867263905</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040234859349915</v>
+        <v>1.041539370542672</v>
       </c>
       <c r="J14">
-        <v>1.044153341460241</v>
+        <v>1.023796029580329</v>
       </c>
       <c r="K14">
-        <v>1.043333599756736</v>
+        <v>1.028214546288496</v>
       </c>
       <c r="L14">
-        <v>1.049889881139824</v>
+        <v>1.024414826563092</v>
       </c>
       <c r="M14">
-        <v>1.060584804546763</v>
+        <v>1.028544633858503</v>
       </c>
       <c r="N14">
-        <v>1.018575331874574</v>
+        <v>1.011437810746881</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037697993852659</v>
+        <v>0.9946835824970016</v>
       </c>
       <c r="D15">
-        <v>1.039851282914997</v>
+        <v>1.013910859854405</v>
       </c>
       <c r="E15">
-        <v>1.046450245655176</v>
+        <v>1.010118835291694</v>
       </c>
       <c r="F15">
-        <v>1.057199980113837</v>
+        <v>1.014399463834107</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040261548520499</v>
+        <v>1.04171225831896</v>
       </c>
       <c r="J15">
-        <v>1.044217285759059</v>
+        <v>1.024126776619754</v>
       </c>
       <c r="K15">
-        <v>1.04338845630082</v>
+        <v>1.028504623290355</v>
       </c>
       <c r="L15">
-        <v>1.049963437982926</v>
+        <v>1.024781533498029</v>
       </c>
       <c r="M15">
-        <v>1.060674814181828</v>
+        <v>1.028984393728528</v>
       </c>
       <c r="N15">
-        <v>1.018596982475093</v>
+        <v>1.011550885715384</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038288442586434</v>
+        <v>0.9978096367068667</v>
       </c>
       <c r="D16">
-        <v>1.040285312807782</v>
+        <v>1.016128293603649</v>
       </c>
       <c r="E16">
-        <v>1.046992841043132</v>
+        <v>1.012790490259299</v>
       </c>
       <c r="F16">
-        <v>1.057837430515483</v>
+        <v>1.0174968818322</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040416543203079</v>
+        <v>1.042706504975576</v>
       </c>
       <c r="J16">
-        <v>1.044589400183261</v>
+        <v>1.026033364286695</v>
       </c>
       <c r="K16">
-        <v>1.043707622043789</v>
+        <v>1.030176486210174</v>
       </c>
       <c r="L16">
-        <v>1.050391628669378</v>
+        <v>1.02689657475474</v>
       </c>
       <c r="M16">
-        <v>1.061198882932925</v>
+        <v>1.031521479183795</v>
       </c>
       <c r="N16">
-        <v>1.018722946320304</v>
+        <v>1.012202652364864</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038658958454751</v>
+        <v>0.999745413970169</v>
       </c>
       <c r="D17">
-        <v>1.040557683957168</v>
+        <v>1.017503024286263</v>
       </c>
       <c r="E17">
-        <v>1.04733345873787</v>
+        <v>1.014447256455056</v>
       </c>
       <c r="F17">
-        <v>1.058237639176823</v>
+        <v>1.019417644355613</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040513460549354</v>
+        <v>1.043319766168092</v>
       </c>
       <c r="J17">
-        <v>1.044822756262426</v>
+        <v>1.027213379060422</v>
       </c>
       <c r="K17">
-        <v>1.043907717228758</v>
+        <v>1.031210967562585</v>
       </c>
       <c r="L17">
-        <v>1.050660271775982</v>
+        <v>1.028206627611537</v>
       </c>
       <c r="M17">
-        <v>1.061527769664147</v>
+        <v>1.033093567421278</v>
       </c>
       <c r="N17">
-        <v>1.018801914018523</v>
+        <v>1.012605989073254</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038875125364012</v>
+        <v>1.000865714849457</v>
       </c>
       <c r="D18">
-        <v>1.040716594723949</v>
+        <v>1.018299183101844</v>
       </c>
       <c r="E18">
-        <v>1.04753222930196</v>
+        <v>1.015406919754773</v>
       </c>
       <c r="F18">
-        <v>1.058471200934243</v>
+        <v>1.020530220878419</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040569880111321</v>
+        <v>1.043673797314282</v>
       </c>
       <c r="J18">
-        <v>1.044958846499193</v>
+        <v>1.027896056368307</v>
       </c>
       <c r="K18">
-        <v>1.044024389797175</v>
+        <v>1.03180935165239</v>
       </c>
       <c r="L18">
-        <v>1.050816984625712</v>
+        <v>1.028964905498104</v>
       </c>
       <c r="M18">
-        <v>1.061719658281839</v>
+        <v>1.034003742208738</v>
       </c>
       <c r="N18">
-        <v>1.018847957815288</v>
+        <v>1.012839312317109</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038948841366339</v>
+        <v>1.001246237556091</v>
       </c>
       <c r="D19">
-        <v>1.040770786153304</v>
+        <v>1.018569699263854</v>
       </c>
       <c r="E19">
-        <v>1.047600020840516</v>
+        <v>1.015733020234271</v>
       </c>
       <c r="F19">
-        <v>1.058550860934762</v>
+        <v>1.020908282432329</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040589098935649</v>
+        <v>1.043793896609289</v>
       </c>
       <c r="J19">
-        <v>1.045005245925922</v>
+        <v>1.028127893647787</v>
       </c>
       <c r="K19">
-        <v>1.044064165391367</v>
+        <v>1.032012546043992</v>
       </c>
       <c r="L19">
-        <v>1.0508704226611</v>
+        <v>1.029222479479991</v>
       </c>
       <c r="M19">
-        <v>1.061785096564594</v>
+        <v>1.034312951749268</v>
       </c>
       <c r="N19">
-        <v>1.018863654712374</v>
+        <v>1.012918545294518</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038619200299537</v>
+        <v>0.9995386395686169</v>
       </c>
       <c r="D20">
-        <v>1.040528456831378</v>
+        <v>1.017356121241976</v>
       </c>
       <c r="E20">
-        <v>1.047296903948844</v>
+        <v>1.014270198150792</v>
       </c>
       <c r="F20">
-        <v>1.058194687449864</v>
+        <v>1.01921237336064</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040503073680799</v>
+        <v>1.043254350703096</v>
       </c>
       <c r="J20">
-        <v>1.044797721676242</v>
+        <v>1.027087357478412</v>
       </c>
       <c r="K20">
-        <v>1.043886252995755</v>
+        <v>1.03110049846544</v>
       </c>
       <c r="L20">
-        <v>1.050631447057987</v>
+        <v>1.028066680109532</v>
       </c>
       <c r="M20">
-        <v>1.061492477580751</v>
+        <v>1.032925604292263</v>
       </c>
       <c r="N20">
-        <v>1.018793443259284</v>
+        <v>1.0125629161417</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03754810971991</v>
+        <v>0.9938818559073884</v>
       </c>
       <c r="D21">
-        <v>1.039741108797515</v>
+        <v>1.01334268593328</v>
       </c>
       <c r="E21">
-        <v>1.046312549361604</v>
+        <v>1.009434402748655</v>
       </c>
       <c r="F21">
-        <v>1.057038225981268</v>
+        <v>1.013605942107729</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040222097370953</v>
+        <v>1.041456525088007</v>
       </c>
       <c r="J21">
-        <v>1.044122778664081</v>
+        <v>1.023637620187754</v>
       </c>
       <c r="K21">
-        <v>1.043307379415151</v>
+        <v>1.028075610691674</v>
       </c>
       <c r="L21">
-        <v>1.049854726362318</v>
+        <v>1.02423921508471</v>
       </c>
       <c r="M21">
-        <v>1.060541788353331</v>
+        <v>1.028334050571776</v>
       </c>
       <c r="N21">
-        <v>1.018564983255885</v>
+        <v>1.011383653269991</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036875139942831</v>
+        <v>0.9902404974049379</v>
       </c>
       <c r="D22">
-        <v>1.039246452334087</v>
+        <v>1.010764821786203</v>
       </c>
       <c r="E22">
-        <v>1.045694501673035</v>
+        <v>1.006329630771997</v>
       </c>
       <c r="F22">
-        <v>1.056312262777855</v>
+        <v>1.010006191941082</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040044442413296</v>
+        <v>1.040291407432966</v>
       </c>
       <c r="J22">
-        <v>1.043698218916301</v>
+        <v>1.021415102789709</v>
       </c>
       <c r="K22">
-        <v>1.042943067864527</v>
+        <v>1.026125999857567</v>
       </c>
       <c r="L22">
-        <v>1.049366538517445</v>
+        <v>1.021776730720102</v>
       </c>
       <c r="M22">
-        <v>1.059944550551938</v>
+        <v>1.025381996680391</v>
       </c>
       <c r="N22">
-        <v>1.018421193145324</v>
+        <v>1.010623759359986</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03723184938558</v>
+        <v>0.9921791528394068</v>
       </c>
       <c r="D23">
-        <v>1.039508642602257</v>
+        <v>1.012136715893363</v>
       </c>
       <c r="E23">
-        <v>1.046022059001919</v>
+        <v>1.007981825006822</v>
       </c>
       <c r="F23">
-        <v>1.05669700023239</v>
+        <v>1.01192181421718</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040138714733062</v>
+        <v>1.040912436257203</v>
       </c>
       <c r="J23">
-        <v>1.043923304402391</v>
+        <v>1.022598528589486</v>
       </c>
       <c r="K23">
-        <v>1.043136229280847</v>
+        <v>1.027164182151029</v>
       </c>
       <c r="L23">
-        <v>1.049625319968732</v>
+        <v>1.023087613995387</v>
       </c>
       <c r="M23">
-        <v>1.060261110052058</v>
+        <v>1.026953310932406</v>
       </c>
       <c r="N23">
-        <v>1.018497432936418</v>
+        <v>1.011028392406879</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038637165140119</v>
+        <v>0.9996320991746823</v>
       </c>
       <c r="D24">
-        <v>1.040541663184026</v>
+        <v>1.017422517981539</v>
       </c>
       <c r="E24">
-        <v>1.047313421194105</v>
+        <v>1.014350223842285</v>
       </c>
       <c r="F24">
-        <v>1.058214095094681</v>
+        <v>1.019305150455151</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040507767401638</v>
+        <v>1.043283920471549</v>
       </c>
       <c r="J24">
-        <v>1.044809033797463</v>
+        <v>1.027144318497368</v>
       </c>
       <c r="K24">
-        <v>1.043895951881061</v>
+        <v>1.031150430154976</v>
       </c>
       <c r="L24">
-        <v>1.050644471652159</v>
+        <v>1.028129934417625</v>
       </c>
       <c r="M24">
-        <v>1.061508424385624</v>
+        <v>1.033001520566432</v>
       </c>
       <c r="N24">
-        <v>1.018797270882476</v>
+        <v>1.012582384918541</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040269964253344</v>
+        <v>1.007937722293238</v>
       </c>
       <c r="D25">
-        <v>1.041742041006325</v>
+        <v>1.023334212038568</v>
       </c>
       <c r="E25">
-        <v>1.048815659331894</v>
+        <v>1.021479258605376</v>
       </c>
       <c r="F25">
-        <v>1.059979570014796</v>
+        <v>1.027570276985523</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040931688804734</v>
+        <v>1.045892494866461</v>
       </c>
       <c r="J25">
-        <v>1.045835991128318</v>
+        <v>1.032200871847992</v>
       </c>
       <c r="K25">
-        <v>1.044776012494752</v>
+        <v>1.035580780142413</v>
       </c>
       <c r="L25">
-        <v>1.051827838166098</v>
+        <v>1.033753042202449</v>
       </c>
       <c r="M25">
-        <v>1.06295799961386</v>
+        <v>1.039755161442923</v>
       </c>
       <c r="N25">
-        <v>1.019144558725134</v>
+        <v>1.014310182230091</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014311240262709</v>
+        <v>1.003574796440374</v>
       </c>
       <c r="D2">
-        <v>1.027885133159949</v>
+        <v>1.023044599457069</v>
       </c>
       <c r="E2">
-        <v>1.026973675277489</v>
+        <v>1.018271769514971</v>
       </c>
       <c r="F2">
-        <v>1.033941016917233</v>
+        <v>1.027336136785645</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047865351092046</v>
+        <v>1.048212143486388</v>
       </c>
       <c r="J2">
-        <v>1.036072170720651</v>
+        <v>1.025649109159251</v>
       </c>
       <c r="K2">
-        <v>1.038969186348362</v>
+        <v>1.034191957100522</v>
       </c>
       <c r="L2">
-        <v>1.038069591389306</v>
+        <v>1.029482285862903</v>
       </c>
       <c r="M2">
-        <v>1.044946914767002</v>
+        <v>1.038427332185188</v>
       </c>
       <c r="N2">
-        <v>1.015632140959974</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012137805430326</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.038985044673875</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.03524691130456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018804937955047</v>
+        <v>1.008206848919832</v>
       </c>
       <c r="D3">
-        <v>1.031101012437268</v>
+        <v>1.026134794278488</v>
       </c>
       <c r="E3">
-        <v>1.030860480194252</v>
+        <v>1.02195843065088</v>
       </c>
       <c r="F3">
-        <v>1.038448524095234</v>
+        <v>1.030809167975645</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049238896773933</v>
+        <v>1.049286906330185</v>
       </c>
       <c r="J3">
-        <v>1.038795765833166</v>
+        <v>1.028476260015944</v>
       </c>
       <c r="K3">
-        <v>1.041350833533348</v>
+        <v>1.036443849105679</v>
       </c>
       <c r="L3">
-        <v>1.041113153901102</v>
+        <v>1.03231785178054</v>
       </c>
       <c r="M3">
-        <v>1.048611994314547</v>
+        <v>1.041062450437214</v>
       </c>
       <c r="N3">
-        <v>1.016561599771907</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013115066054639</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.041070565460096</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036836535249715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021654142479571</v>
+        <v>1.011139971208105</v>
       </c>
       <c r="D4">
-        <v>1.033143012499536</v>
+        <v>1.028092482031157</v>
       </c>
       <c r="E4">
-        <v>1.033330616604054</v>
+        <v>1.024299468108469</v>
       </c>
       <c r="F4">
-        <v>1.041313603689554</v>
+        <v>1.033019413221214</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050101489145722</v>
+        <v>1.049952319502116</v>
       </c>
       <c r="J4">
-        <v>1.040519696970513</v>
+        <v>1.030262945176393</v>
       </c>
       <c r="K4">
-        <v>1.042857232511484</v>
+        <v>1.037863277961398</v>
       </c>
       <c r="L4">
-        <v>1.043042748186227</v>
+        <v>1.034113205602109</v>
       </c>
       <c r="M4">
-        <v>1.050937723996519</v>
+        <v>1.042735009664065</v>
       </c>
       <c r="N4">
-        <v>1.017149608681428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013732533243082</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.042394281688571</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037841100792933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022838428491235</v>
+        <v>1.012361906572376</v>
       </c>
       <c r="D5">
-        <v>1.033992447375851</v>
+        <v>1.028910066513749</v>
       </c>
       <c r="E5">
-        <v>1.034358680368447</v>
+        <v>1.025276558179692</v>
       </c>
       <c r="F5">
-        <v>1.042506172008244</v>
+        <v>1.03394231525623</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050458005542033</v>
+        <v>1.050227194156428</v>
       </c>
       <c r="J5">
-        <v>1.041235517774548</v>
+        <v>1.031007731029006</v>
       </c>
       <c r="K5">
-        <v>1.043482456431108</v>
+        <v>1.038455480671941</v>
       </c>
       <c r="L5">
-        <v>1.043844722764068</v>
+        <v>1.034861996593412</v>
       </c>
       <c r="M5">
-        <v>1.051904851331426</v>
+        <v>1.043432867559316</v>
       </c>
       <c r="N5">
-        <v>1.017393687826521</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013990812791768</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.042946587766161</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.03826702855157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023036496326319</v>
+        <v>1.012570672433628</v>
       </c>
       <c r="D6">
-        <v>1.03413455030422</v>
+        <v>1.029052014564272</v>
       </c>
       <c r="E6">
-        <v>1.034530698291365</v>
+        <v>1.025443931255126</v>
       </c>
       <c r="F6">
-        <v>1.042705723323869</v>
+        <v>1.034099553125253</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050517511735202</v>
+        <v>1.050275600044541</v>
       </c>
       <c r="J6">
-        <v>1.041355191985758</v>
+        <v>1.031136556108092</v>
       </c>
       <c r="K6">
-        <v>1.043586967969639</v>
+        <v>1.038559583474771</v>
       </c>
       <c r="L6">
-        <v>1.043978845212088</v>
+        <v>1.034991059582139</v>
       </c>
       <c r="M6">
-        <v>1.052066624286714</v>
+        <v>1.043552348276905</v>
       </c>
       <c r="N6">
-        <v>1.0174344894147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014036609429127</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.043041148417496</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.038349402628945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021670019458351</v>
+        <v>1.011168308804287</v>
       </c>
       <c r="D7">
-        <v>1.033154397767673</v>
+        <v>1.028117455653861</v>
       </c>
       <c r="E7">
-        <v>1.03334439396443</v>
+        <v>1.024323087677515</v>
       </c>
       <c r="F7">
-        <v>1.041329585084324</v>
+        <v>1.033039244016714</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050106276777629</v>
+        <v>1.049963145654484</v>
       </c>
       <c r="J7">
-        <v>1.04052929649411</v>
+        <v>1.030284591475929</v>
       </c>
       <c r="K7">
-        <v>1.042865618171844</v>
+        <v>1.037885078496999</v>
       </c>
       <c r="L7">
-        <v>1.043053500077754</v>
+        <v>1.034133650569634</v>
       </c>
       <c r="M7">
-        <v>1.050950688021725</v>
+        <v>1.042751746325498</v>
       </c>
       <c r="N7">
-        <v>1.01715288221969</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013743110424974</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.042407527599123</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037876678897855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015842325759914</v>
+        <v>1.005168678315039</v>
       </c>
       <c r="D8">
-        <v>1.028980184673123</v>
+        <v>1.024115002117022</v>
       </c>
       <c r="E8">
-        <v>1.028296758071154</v>
+        <v>1.019540300925322</v>
       </c>
       <c r="F8">
-        <v>1.035475299604481</v>
+        <v>1.028527082412088</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048335062055391</v>
+        <v>1.048590403752302</v>
       </c>
       <c r="J8">
-        <v>1.037000748225019</v>
+        <v>1.026628003270345</v>
       </c>
       <c r="K8">
-        <v>1.039781403961117</v>
+        <v>1.034977935151789</v>
       </c>
       <c r="L8">
-        <v>1.039106602475355</v>
+        <v>1.030461935034603</v>
       </c>
       <c r="M8">
-        <v>1.046195255829255</v>
+        <v>1.039334018433368</v>
       </c>
       <c r="N8">
-        <v>1.015949089616048</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012480260527183</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.039702627201256</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.035825667680584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005101715326734</v>
+        <v>0.9940605428659148</v>
       </c>
       <c r="D9">
-        <v>1.021313184957946</v>
+        <v>1.016705544316355</v>
       </c>
       <c r="E9">
-        <v>1.019041130356998</v>
+        <v>1.01073807798005</v>
       </c>
       <c r="F9">
-        <v>1.024743542331139</v>
+        <v>1.020266010685025</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045006242921554</v>
+        <v>1.04592388152948</v>
       </c>
       <c r="J9">
-        <v>1.030475596267564</v>
+        <v>1.019824796260769</v>
       </c>
       <c r="K9">
-        <v>1.034069682173723</v>
+        <v>1.029533277854141</v>
       </c>
       <c r="L9">
-        <v>1.031832651802431</v>
+        <v>1.023659307032785</v>
       </c>
       <c r="M9">
-        <v>1.037447535025937</v>
+        <v>1.033038625585172</v>
       </c>
       <c r="N9">
-        <v>1.013720784517447</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010124524847396</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.034720222960679</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.031972691828345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9975896663240424</v>
+        <v>0.9863847102172353</v>
       </c>
       <c r="D10">
-        <v>1.015972154617597</v>
+        <v>1.011603463392245</v>
       </c>
       <c r="E10">
-        <v>1.012602340261883</v>
+        <v>1.00476018442255</v>
       </c>
       <c r="F10">
-        <v>1.017278750155535</v>
+        <v>1.014750151499437</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042636698088332</v>
+        <v>1.04401975339158</v>
       </c>
       <c r="J10">
-        <v>1.025899242955371</v>
+        <v>1.015149133263004</v>
       </c>
       <c r="K10">
-        <v>1.030058893339461</v>
+        <v>1.02576632721603</v>
       </c>
       <c r="L10">
-        <v>1.026747723481352</v>
+        <v>1.019044020888518</v>
       </c>
       <c r="M10">
-        <v>1.03134288554793</v>
+        <v>1.028858098338394</v>
       </c>
       <c r="N10">
-        <v>1.012156806193306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008519324397438</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.031463461323776</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.029326110841777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9942450700901443</v>
+        <v>0.9838886371420383</v>
       </c>
       <c r="D11">
-        <v>1.013600064821961</v>
+        <v>1.009991681906685</v>
       </c>
       <c r="E11">
-        <v>1.00974443996989</v>
+        <v>1.003344996153571</v>
       </c>
       <c r="F11">
-        <v>1.013965396006867</v>
+        <v>1.013998663642621</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041572419025579</v>
+        <v>1.043486887202133</v>
       </c>
       <c r="J11">
-        <v>1.023859236247943</v>
+        <v>1.013947374636961</v>
       </c>
       <c r="K11">
-        <v>1.028269981871263</v>
+        <v>1.024727598006957</v>
       </c>
       <c r="L11">
-        <v>1.024484900739713</v>
+        <v>1.018204105247534</v>
       </c>
       <c r="M11">
-        <v>1.028628665047526</v>
+        <v>1.028661327614733</v>
       </c>
       <c r="N11">
-        <v>1.011459419875721</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008219637324165</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.031747361975264</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.028624792051408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9929881692827115</v>
+        <v>0.9832905671891109</v>
       </c>
       <c r="D12">
-        <v>1.01270959471422</v>
+        <v>1.009623358798584</v>
       </c>
       <c r="E12">
-        <v>1.008671825715396</v>
+        <v>1.00326470389097</v>
       </c>
       <c r="F12">
-        <v>1.012721810753833</v>
+        <v>1.014326107173142</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041171114065426</v>
+        <v>1.043403721875165</v>
       </c>
       <c r="J12">
-        <v>1.02309227576074</v>
+        <v>1.013819330644691</v>
       </c>
       <c r="K12">
-        <v>1.027597283606358</v>
+        <v>1.024568483985318</v>
       </c>
       <c r="L12">
-        <v>1.023634751927437</v>
+        <v>1.018329623472129</v>
       </c>
       <c r="M12">
-        <v>1.027609273206776</v>
+        <v>1.029183893804752</v>
       </c>
       <c r="N12">
-        <v>1.011197205154244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008262226722646</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.032489238918752</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.028512291471581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.993258451048523</v>
+        <v>0.9841279854837016</v>
       </c>
       <c r="D13">
-        <v>1.012901035125973</v>
+        <v>1.010203183269025</v>
       </c>
       <c r="E13">
-        <v>1.008902415256347</v>
+        <v>1.004219691636058</v>
       </c>
       <c r="F13">
-        <v>1.012989157312697</v>
+        <v>1.01552932497887</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041257470140927</v>
+        <v>1.043674759209856</v>
       </c>
       <c r="J13">
-        <v>1.023257215526588</v>
+        <v>1.014524465294914</v>
       </c>
       <c r="K13">
-        <v>1.027741957760413</v>
+        <v>1.025094096202267</v>
       </c>
       <c r="L13">
-        <v>1.023817555650286</v>
+        <v>1.019222729241224</v>
       </c>
       <c r="M13">
-        <v>1.027828452925545</v>
+        <v>1.030321878939821</v>
       </c>
       <c r="N13">
-        <v>1.011253597164617</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008580359758972</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.033667153366673</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.028881408825666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9941414761371266</v>
+        <v>0.9853575437812919</v>
       </c>
       <c r="D14">
-        <v>1.013526652133184</v>
+        <v>1.011035032232852</v>
       </c>
       <c r="E14">
-        <v>1.009656006433057</v>
+        <v>1.005347297518665</v>
       </c>
       <c r="F14">
-        <v>1.013862867263905</v>
+        <v>1.016758358209123</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041539370542672</v>
+        <v>1.044022850698451</v>
       </c>
       <c r="J14">
-        <v>1.023796029580329</v>
+        <v>1.015388957859417</v>
       </c>
       <c r="K14">
-        <v>1.028214546288496</v>
+        <v>1.025768501888368</v>
       </c>
       <c r="L14">
-        <v>1.024414826563092</v>
+        <v>1.02018590880835</v>
       </c>
       <c r="M14">
-        <v>1.028544633858503</v>
+        <v>1.031387572233406</v>
       </c>
       <c r="N14">
-        <v>1.011437810746881</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008925543110012</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.034683599909872</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.029359679559039</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9946835824970016</v>
+        <v>0.9859777051352905</v>
       </c>
       <c r="D15">
-        <v>1.013910859854405</v>
+        <v>1.011451660344772</v>
       </c>
       <c r="E15">
-        <v>1.010118835291694</v>
+        <v>1.005862590478301</v>
       </c>
       <c r="F15">
-        <v>1.014399463834107</v>
+        <v>1.01727355938846</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04171225831896</v>
+        <v>1.044188654170857</v>
       </c>
       <c r="J15">
-        <v>1.024126776619754</v>
+        <v>1.015790992389765</v>
       </c>
       <c r="K15">
-        <v>1.028504623290355</v>
+        <v>1.026090052620639</v>
       </c>
       <c r="L15">
-        <v>1.024781533498029</v>
+        <v>1.020603469441425</v>
       </c>
       <c r="M15">
-        <v>1.028984393728528</v>
+        <v>1.031806751230979</v>
       </c>
       <c r="N15">
-        <v>1.011550885715384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009074419217453</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.035052586328678</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.029592946727044</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9978096367068667</v>
+        <v>0.9890638064976187</v>
       </c>
       <c r="D16">
-        <v>1.016128293603649</v>
+        <v>1.013499524502478</v>
       </c>
       <c r="E16">
-        <v>1.012790490259299</v>
+        <v>1.008208908359629</v>
       </c>
       <c r="F16">
-        <v>1.0174968818322</v>
+        <v>1.019413275745393</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042706504975576</v>
+        <v>1.044959926502115</v>
       </c>
       <c r="J16">
-        <v>1.026033364286695</v>
+        <v>1.017639945770983</v>
       </c>
       <c r="K16">
-        <v>1.030176486210174</v>
+        <v>1.027593270000119</v>
       </c>
       <c r="L16">
-        <v>1.02689657475474</v>
+        <v>1.022395266456407</v>
       </c>
       <c r="M16">
-        <v>1.031521479183795</v>
+        <v>1.033404970935821</v>
       </c>
       <c r="N16">
-        <v>1.012202652364864</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009694567154885</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.036276966201808</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.030658975124246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.999745413970169</v>
+        <v>0.9907908436553216</v>
       </c>
       <c r="D17">
-        <v>1.017503024286263</v>
+        <v>1.014637965577897</v>
       </c>
       <c r="E17">
-        <v>1.014447256455056</v>
+        <v>1.009422684294369</v>
       </c>
       <c r="F17">
-        <v>1.019417644355613</v>
+        <v>1.020408101186778</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043319766168092</v>
+        <v>1.045366992351165</v>
       </c>
       <c r="J17">
-        <v>1.027213379060422</v>
+        <v>1.018607574735863</v>
       </c>
       <c r="K17">
-        <v>1.031210967562585</v>
+        <v>1.028394115450678</v>
       </c>
       <c r="L17">
-        <v>1.028206627611537</v>
+        <v>1.023267492484349</v>
       </c>
       <c r="M17">
-        <v>1.033093567421278</v>
+        <v>1.034067520537436</v>
       </c>
       <c r="N17">
-        <v>1.012605989073254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009990445504766</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.03667119306159</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.03122781232922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000865714849457</v>
+        <v>0.9914858681342207</v>
       </c>
       <c r="D18">
-        <v>1.018299183101844</v>
+        <v>1.015077872943733</v>
       </c>
       <c r="E18">
-        <v>1.015406919754773</v>
+        <v>1.009722244457561</v>
       </c>
       <c r="F18">
-        <v>1.020530220878419</v>
+        <v>1.020425424375879</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043673797314282</v>
+        <v>1.045489945341332</v>
       </c>
       <c r="J18">
-        <v>1.027896056368307</v>
+        <v>1.018874433311069</v>
       </c>
       <c r="K18">
-        <v>1.03180935165239</v>
+        <v>1.028641320979697</v>
       </c>
       <c r="L18">
-        <v>1.028964905498104</v>
+        <v>1.023375243312933</v>
       </c>
       <c r="M18">
-        <v>1.034003742208738</v>
+        <v>1.033900662491173</v>
       </c>
       <c r="N18">
-        <v>1.012839312317109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010018591245194</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.036300667479977</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.031390881946046</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001246237556091</v>
+        <v>0.9912538216344011</v>
       </c>
       <c r="D19">
-        <v>1.018569699263854</v>
+        <v>1.014898758369438</v>
       </c>
       <c r="E19">
-        <v>1.015733020234271</v>
+        <v>1.009189754690704</v>
       </c>
       <c r="F19">
-        <v>1.020908282432329</v>
+        <v>1.019541070339131</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043793896609289</v>
+        <v>1.045365076640861</v>
       </c>
       <c r="J19">
-        <v>1.028127893647787</v>
+        <v>1.018514784158149</v>
       </c>
       <c r="K19">
-        <v>1.032012546043992</v>
+        <v>1.028401990063321</v>
       </c>
       <c r="L19">
-        <v>1.029222479479991</v>
+        <v>1.022788021412059</v>
       </c>
       <c r="M19">
-        <v>1.034312951749268</v>
+        <v>1.032968032117941</v>
       </c>
       <c r="N19">
-        <v>1.012918545294518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009815319425759</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.035236128713208</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.03122810383879</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9995386395686169</v>
+        <v>0.9884124788805764</v>
       </c>
       <c r="D20">
-        <v>1.017356121241976</v>
+        <v>1.012964347287102</v>
       </c>
       <c r="E20">
-        <v>1.014270198150792</v>
+        <v>1.006342903183946</v>
       </c>
       <c r="F20">
-        <v>1.01921237336064</v>
+        <v>1.016206440604335</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043254350703096</v>
+        <v>1.044538307580171</v>
       </c>
       <c r="J20">
-        <v>1.027087357478412</v>
+        <v>1.016397505302717</v>
       </c>
       <c r="K20">
-        <v>1.03110049846544</v>
+        <v>1.026783001510541</v>
       </c>
       <c r="L20">
-        <v>1.028066680109532</v>
+        <v>1.020275129741661</v>
       </c>
       <c r="M20">
-        <v>1.032925604292263</v>
+        <v>1.029970182072843</v>
       </c>
       <c r="N20">
-        <v>1.0125629161417</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008957838854594</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.032332927259547</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.030087359216567</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9938818559073884</v>
+        <v>0.982444461303007</v>
       </c>
       <c r="D21">
-        <v>1.01334268593328</v>
+        <v>1.008991932976103</v>
       </c>
       <c r="E21">
-        <v>1.009434402748655</v>
+        <v>1.00160991708236</v>
       </c>
       <c r="F21">
-        <v>1.013605942107729</v>
+        <v>1.011741552878818</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041456525088007</v>
+        <v>1.043011492258471</v>
       </c>
       <c r="J21">
-        <v>1.023637620187754</v>
+        <v>1.012694961950111</v>
       </c>
       <c r="K21">
-        <v>1.028075610691674</v>
+        <v>1.023804929698814</v>
       </c>
       <c r="L21">
-        <v>1.02423921508471</v>
+        <v>1.016560853147684</v>
       </c>
       <c r="M21">
-        <v>1.028334050571776</v>
+        <v>1.026503840823984</v>
       </c>
       <c r="N21">
-        <v>1.011383653269991</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007665026199773</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.029548317983064</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.027984989025218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9902404974049379</v>
+        <v>0.9786415776173311</v>
       </c>
       <c r="D22">
-        <v>1.010764821786203</v>
+        <v>1.006461745122276</v>
       </c>
       <c r="E22">
-        <v>1.006329630771997</v>
+        <v>0.9986342585819311</v>
       </c>
       <c r="F22">
-        <v>1.010006191941082</v>
+        <v>1.008977251908618</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040291407432966</v>
+        <v>1.042026209996305</v>
       </c>
       <c r="J22">
-        <v>1.021415102789709</v>
+        <v>1.010348703765722</v>
       </c>
       <c r="K22">
-        <v>1.026125999857567</v>
+        <v>1.021906271300651</v>
       </c>
       <c r="L22">
-        <v>1.021776730720102</v>
+        <v>1.014232819714788</v>
       </c>
       <c r="M22">
-        <v>1.025381996680391</v>
+        <v>1.024372941055713</v>
       </c>
       <c r="N22">
-        <v>1.010623759359986</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006848150045164</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.027861825486367</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.026628905387371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9921791528394068</v>
+        <v>0.9806558479120138</v>
       </c>
       <c r="D23">
-        <v>1.012136715893363</v>
+        <v>1.00779663885201</v>
       </c>
       <c r="E23">
-        <v>1.007981825006822</v>
+        <v>1.000208008865188</v>
       </c>
       <c r="F23">
-        <v>1.01192181421718</v>
+        <v>1.010440786008552</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040912436257203</v>
+        <v>1.042546125254064</v>
       </c>
       <c r="J23">
-        <v>1.022598528589486</v>
+        <v>1.011587928476748</v>
       </c>
       <c r="K23">
-        <v>1.027164182151029</v>
+        <v>1.02290593838988</v>
       </c>
       <c r="L23">
-        <v>1.023087613995387</v>
+        <v>1.015462630204119</v>
       </c>
       <c r="M23">
-        <v>1.026953310932406</v>
+        <v>1.025500120150219</v>
       </c>
       <c r="N23">
-        <v>1.011028392406879</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007276068656349</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.028753927596212</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.027325994295127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9996320991746823</v>
+        <v>0.9884048859064333</v>
       </c>
       <c r="D24">
-        <v>1.017422517981539</v>
+        <v>1.012947754732734</v>
       </c>
       <c r="E24">
-        <v>1.014350223842285</v>
+        <v>1.006284721445874</v>
       </c>
       <c r="F24">
-        <v>1.019305150455151</v>
+        <v>1.016100962032969</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043283920471549</v>
+        <v>1.044521656690693</v>
       </c>
       <c r="J24">
-        <v>1.027144318497368</v>
+        <v>1.016356703844565</v>
       </c>
       <c r="K24">
-        <v>1.031150430154976</v>
+        <v>1.026751245569284</v>
       </c>
       <c r="L24">
-        <v>1.028129934417625</v>
+        <v>1.020202361964447</v>
       </c>
       <c r="M24">
-        <v>1.033001520566432</v>
+        <v>1.029851105917959</v>
       </c>
       <c r="N24">
-        <v>1.012582384918541</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008928535016494</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.032197489894478</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.030037286480637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007937722293238</v>
+        <v>0.9970161778412497</v>
       </c>
       <c r="D25">
-        <v>1.023334212038568</v>
+        <v>1.018684262790694</v>
       </c>
       <c r="E25">
-        <v>1.021479258605376</v>
+        <v>1.013075391113417</v>
       </c>
       <c r="F25">
-        <v>1.027570276985523</v>
+        <v>1.022451160259805</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045892494866461</v>
+        <v>1.04665309927182</v>
       </c>
       <c r="J25">
-        <v>1.032200871847992</v>
+        <v>1.021644378460617</v>
       </c>
       <c r="K25">
-        <v>1.035580780142413</v>
+        <v>1.030999291852947</v>
       </c>
       <c r="L25">
-        <v>1.033753042202449</v>
+        <v>1.025474063587269</v>
       </c>
       <c r="M25">
-        <v>1.039755161442923</v>
+        <v>1.034710668683081</v>
       </c>
       <c r="N25">
-        <v>1.014310182230091</v>
+        <v>1.010760142446095</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.036043542450648</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.03303802600171</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003574796440374</v>
+        <v>1.003558620305316</v>
       </c>
       <c r="D2">
-        <v>1.023044599457069</v>
+        <v>1.022615106042958</v>
       </c>
       <c r="E2">
-        <v>1.018271769514971</v>
+        <v>1.018282916210377</v>
       </c>
       <c r="F2">
-        <v>1.027336136785645</v>
+        <v>1.027344058151397</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048212143486388</v>
+        <v>1.047994101744781</v>
       </c>
       <c r="J2">
-        <v>1.025649109159251</v>
+        <v>1.02563341213682</v>
       </c>
       <c r="K2">
-        <v>1.034191957100522</v>
+        <v>1.033768116890275</v>
       </c>
       <c r="L2">
-        <v>1.029482285862903</v>
+        <v>1.029493284188599</v>
       </c>
       <c r="M2">
-        <v>1.038427332185188</v>
+        <v>1.038435150429357</v>
       </c>
       <c r="N2">
-        <v>1.012137805430326</v>
+        <v>1.013783256191536</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.038985044673875</v>
+        <v>1.038991232302954</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03524691130456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034956029822035</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021055289807775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008206848919832</v>
+        <v>1.00791900322176</v>
       </c>
       <c r="D3">
-        <v>1.026134794278488</v>
+        <v>1.025407355607215</v>
       </c>
       <c r="E3">
-        <v>1.02195843065088</v>
+        <v>1.021754196971713</v>
       </c>
       <c r="F3">
-        <v>1.030809167975645</v>
+        <v>1.030664183508393</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049286906330185</v>
+        <v>1.048917213215634</v>
       </c>
       <c r="J3">
-        <v>1.028476260015944</v>
+        <v>1.028196091724324</v>
       </c>
       <c r="K3">
-        <v>1.036443849105679</v>
+        <v>1.03572514661535</v>
       </c>
       <c r="L3">
-        <v>1.03231785178054</v>
+        <v>1.032116094244467</v>
       </c>
       <c r="M3">
-        <v>1.041062450437214</v>
+        <v>1.040919186433637</v>
       </c>
       <c r="N3">
-        <v>1.013115066054639</v>
+        <v>1.014483889174129</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.041070565460096</v>
+        <v>1.040957181687595</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036836535249715</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036336876673775</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021475539496028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011139971208105</v>
+        <v>1.010682443088115</v>
       </c>
       <c r="D4">
-        <v>1.028092482031157</v>
+        <v>1.027177922984787</v>
       </c>
       <c r="E4">
-        <v>1.024299468108469</v>
+        <v>1.023960633367993</v>
       </c>
       <c r="F4">
-        <v>1.033019413221214</v>
+        <v>1.032779036115397</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049952319502116</v>
+        <v>1.049487205430697</v>
       </c>
       <c r="J4">
-        <v>1.030262945176393</v>
+        <v>1.029816782708014</v>
       </c>
       <c r="K4">
-        <v>1.037863277961398</v>
+        <v>1.036959037088794</v>
       </c>
       <c r="L4">
-        <v>1.034113205602109</v>
+        <v>1.03377822597544</v>
       </c>
       <c r="M4">
-        <v>1.042735009664065</v>
+        <v>1.042497310615524</v>
       </c>
       <c r="N4">
-        <v>1.013732533243082</v>
+        <v>1.014927025349529</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.042394281688571</v>
+        <v>1.042206159297214</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037841100792933</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037210328799539</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021737876097601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012361906572376</v>
+        <v>1.011834098442518</v>
       </c>
       <c r="D5">
-        <v>1.028910066513749</v>
+        <v>1.02791790871756</v>
       </c>
       <c r="E5">
-        <v>1.025276558179692</v>
+        <v>1.024881915135748</v>
       </c>
       <c r="F5">
-        <v>1.03394231525623</v>
+        <v>1.033662423495465</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050227194156428</v>
+        <v>1.049722466863344</v>
       </c>
       <c r="J5">
-        <v>1.031007731029006</v>
+        <v>1.030492637313181</v>
       </c>
       <c r="K5">
-        <v>1.038455480671941</v>
+        <v>1.037474217308741</v>
       </c>
       <c r="L5">
-        <v>1.034861996593412</v>
+        <v>1.034471721674986</v>
       </c>
       <c r="M5">
-        <v>1.043432867559316</v>
+        <v>1.04315600998386</v>
       </c>
       <c r="N5">
-        <v>1.013990812791768</v>
+        <v>1.015112472948774</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.042946587766161</v>
+        <v>1.04272747426536</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.03826702855157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037582505522701</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021847308145214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012570672433628</v>
+        <v>1.012030742647926</v>
       </c>
       <c r="D6">
-        <v>1.029052014564272</v>
+        <v>1.028046621862934</v>
       </c>
       <c r="E6">
-        <v>1.025443931255126</v>
+        <v>1.025039605862433</v>
       </c>
       <c r="F6">
-        <v>1.034099553125253</v>
+        <v>1.03381280756506</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050275600044541</v>
+        <v>1.049764114421076</v>
       </c>
       <c r="J6">
-        <v>1.031136556108092</v>
+        <v>1.030609564926133</v>
       </c>
       <c r="K6">
-        <v>1.038559583474771</v>
+        <v>1.037565179739329</v>
       </c>
       <c r="L6">
-        <v>1.034991059582139</v>
+        <v>1.034591188580324</v>
       </c>
       <c r="M6">
-        <v>1.043552348276905</v>
+        <v>1.043268696789032</v>
       </c>
       <c r="N6">
-        <v>1.014036609429127</v>
+        <v>1.015145341839002</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.043041148417496</v>
+        <v>1.042816658036262</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038349402628945</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037656458000452</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021867248035792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011168308804287</v>
+        <v>1.010719316208618</v>
       </c>
       <c r="D7">
-        <v>1.028117455653861</v>
+        <v>1.027208404323368</v>
       </c>
       <c r="E7">
-        <v>1.024323087677515</v>
+        <v>1.023991335773946</v>
       </c>
       <c r="F7">
-        <v>1.033039244016714</v>
+        <v>1.032803892561605</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049963145654484</v>
+        <v>1.049500830579229</v>
       </c>
       <c r="J7">
-        <v>1.030284591475929</v>
+        <v>1.029846747456973</v>
       </c>
       <c r="K7">
-        <v>1.037885078496999</v>
+        <v>1.036986279097967</v>
       </c>
       <c r="L7">
-        <v>1.034133650569634</v>
+        <v>1.033805671687086</v>
       </c>
       <c r="M7">
-        <v>1.042751746325498</v>
+        <v>1.042519015923431</v>
       </c>
       <c r="N7">
-        <v>1.013743110424974</v>
+        <v>1.014964062121626</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.042407527599123</v>
+        <v>1.042223337552385</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037876678897855</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.037251755542192</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02174627408236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005168678315039</v>
+        <v>1.005090564377702</v>
       </c>
       <c r="D8">
-        <v>1.024115002117022</v>
+        <v>1.023605263975327</v>
       </c>
       <c r="E8">
-        <v>1.019540300925322</v>
+        <v>1.019503734660811</v>
       </c>
       <c r="F8">
-        <v>1.028527082412088</v>
+        <v>1.028501106123174</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048590403752302</v>
+        <v>1.048331531231558</v>
       </c>
       <c r="J8">
-        <v>1.026628003270345</v>
+        <v>1.026552123709886</v>
       </c>
       <c r="K8">
-        <v>1.034977935151789</v>
+        <v>1.034474705345754</v>
       </c>
       <c r="L8">
-        <v>1.030461935034603</v>
+        <v>1.030425840631202</v>
       </c>
       <c r="M8">
-        <v>1.039334018433368</v>
+        <v>1.039308370074467</v>
       </c>
       <c r="N8">
-        <v>1.012480260527183</v>
+        <v>1.014118590191954</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.039702627201256</v>
+        <v>1.039682328222084</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.035825667680584</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035480915493431</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021212368998291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9940605428659148</v>
+        <v>0.9946546972643677</v>
       </c>
       <c r="D9">
-        <v>1.016705544316355</v>
+        <v>1.016923779550348</v>
       </c>
       <c r="E9">
-        <v>1.01073807798005</v>
+        <v>1.011234388525543</v>
       </c>
       <c r="F9">
-        <v>1.020266010685025</v>
+        <v>1.020619490236349</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04592388152948</v>
+        <v>1.046034445719336</v>
       </c>
       <c r="J9">
-        <v>1.019824796260769</v>
+        <v>1.020397634324073</v>
       </c>
       <c r="K9">
-        <v>1.029533277854141</v>
+        <v>1.029748120457404</v>
       </c>
       <c r="L9">
-        <v>1.023659307032785</v>
+        <v>1.024147787764319</v>
       </c>
       <c r="M9">
-        <v>1.033038625585172</v>
+        <v>1.03338665980131</v>
       </c>
       <c r="N9">
-        <v>1.010124524847396</v>
+        <v>1.012444168128807</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.034720222960679</v>
+        <v>1.034995670886169</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.031972691828345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.032135411872307</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020181044005692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9863847102172353</v>
+        <v>0.987503108010877</v>
       </c>
       <c r="D10">
-        <v>1.011603463392245</v>
+        <v>1.012365195686824</v>
       </c>
       <c r="E10">
-        <v>1.00476018442255</v>
+        <v>1.005672494444025</v>
       </c>
       <c r="F10">
-        <v>1.014750151499437</v>
+        <v>1.015400956666019</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04401975339158</v>
+        <v>1.044405062652466</v>
       </c>
       <c r="J10">
-        <v>1.015149133263004</v>
+        <v>1.016221472437662</v>
       </c>
       <c r="K10">
-        <v>1.02576632721603</v>
+        <v>1.026514724953024</v>
       </c>
       <c r="L10">
-        <v>1.019044020888518</v>
+        <v>1.019940080028342</v>
       </c>
       <c r="M10">
-        <v>1.028858098338394</v>
+        <v>1.029497600423732</v>
       </c>
       <c r="N10">
-        <v>1.008519324397438</v>
+        <v>1.011433069639398</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.031463461323776</v>
+        <v>1.031969558538497</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.029326110841777</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.029867785803229</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019472369793188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9838886371420383</v>
+        <v>0.9852230051754824</v>
       </c>
       <c r="D11">
-        <v>1.009991681906685</v>
+        <v>1.010960068388306</v>
       </c>
       <c r="E11">
-        <v>1.003344996153571</v>
+        <v>1.004421990723619</v>
       </c>
       <c r="F11">
-        <v>1.013998663642621</v>
+        <v>1.014766171370866</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043486887202133</v>
+        <v>1.04397641311302</v>
       </c>
       <c r="J11">
-        <v>1.013947374636961</v>
+        <v>1.015223712731403</v>
       </c>
       <c r="K11">
-        <v>1.024727598006957</v>
+        <v>1.025678211999184</v>
       </c>
       <c r="L11">
-        <v>1.018204105247534</v>
+        <v>1.019260993826726</v>
       </c>
       <c r="M11">
-        <v>1.028661327614733</v>
+        <v>1.029414890316396</v>
       </c>
       <c r="N11">
-        <v>1.008219637324165</v>
+        <v>1.011472895749161</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.031747361975264</v>
+        <v>1.03234342132538</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.028624792051408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.029312652689339</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019340168930868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9832905671891109</v>
+        <v>0.9846774123079526</v>
       </c>
       <c r="D12">
-        <v>1.009623358798584</v>
+        <v>1.01064044984498</v>
       </c>
       <c r="E12">
-        <v>1.00326470389097</v>
+        <v>1.00437632797779</v>
       </c>
       <c r="F12">
-        <v>1.014326107173142</v>
+        <v>1.01511752923286</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043403721875165</v>
+        <v>1.043917751165467</v>
       </c>
       <c r="J12">
-        <v>1.013819330644691</v>
+        <v>1.015144712368172</v>
       </c>
       <c r="K12">
-        <v>1.024568483985318</v>
+        <v>1.025566595925779</v>
       </c>
       <c r="L12">
-        <v>1.018329623472129</v>
+        <v>1.019420162005432</v>
       </c>
       <c r="M12">
-        <v>1.029183893804752</v>
+        <v>1.029960721383898</v>
       </c>
       <c r="N12">
-        <v>1.008262226722646</v>
+        <v>1.011611684865292</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.032489238918752</v>
+        <v>1.033103489862093</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.028512291471581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.02923373705671</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019350193172041</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9841279854837016</v>
+        <v>0.9854279171536664</v>
       </c>
       <c r="D13">
-        <v>1.010203183269025</v>
+        <v>1.011139073171226</v>
       </c>
       <c r="E13">
-        <v>1.004219691636058</v>
+        <v>1.005254753583392</v>
       </c>
       <c r="F13">
-        <v>1.01552932497887</v>
+        <v>1.016265487643793</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043674759209856</v>
+        <v>1.044147783158436</v>
       </c>
       <c r="J13">
-        <v>1.014524465294914</v>
+        <v>1.015767129432129</v>
       </c>
       <c r="K13">
-        <v>1.025094096202267</v>
+        <v>1.026012604966862</v>
       </c>
       <c r="L13">
-        <v>1.019222729241224</v>
+        <v>1.020238270426938</v>
       </c>
       <c r="M13">
-        <v>1.030321878939821</v>
+        <v>1.031044552333471</v>
       </c>
       <c r="N13">
-        <v>1.008580359758972</v>
+        <v>1.011804405611209</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033667153366673</v>
+        <v>1.034238438791438</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.028881408825666</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.02954632284534</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019474979332905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9853575437812919</v>
+        <v>0.9865355408800278</v>
       </c>
       <c r="D14">
-        <v>1.011035032232852</v>
+        <v>1.011857127223081</v>
       </c>
       <c r="E14">
-        <v>1.005347297518665</v>
+        <v>1.006280687211572</v>
       </c>
       <c r="F14">
-        <v>1.016758358209123</v>
+        <v>1.017421728811132</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044022850698451</v>
+        <v>1.044438436012401</v>
       </c>
       <c r="J14">
-        <v>1.015388957859417</v>
+        <v>1.016515858322312</v>
       </c>
       <c r="K14">
-        <v>1.025768501888368</v>
+        <v>1.026575527208192</v>
       </c>
       <c r="L14">
-        <v>1.02018590880835</v>
+        <v>1.021101937828825</v>
       </c>
       <c r="M14">
-        <v>1.031387572233406</v>
+        <v>1.032038957545734</v>
       </c>
       <c r="N14">
-        <v>1.008925543110012</v>
+        <v>1.011964285583089</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034683599909872</v>
+        <v>1.035198461112149</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.029359679559039</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.02994589885179</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019614158021759</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9859777051352905</v>
+        <v>0.9870961080912103</v>
       </c>
       <c r="D15">
-        <v>1.011451660344772</v>
+        <v>1.012218008253477</v>
       </c>
       <c r="E15">
-        <v>1.005862590478301</v>
+        <v>1.006747573266528</v>
       </c>
       <c r="F15">
-        <v>1.01727355938846</v>
+        <v>1.01790238729303</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044188654170857</v>
+        <v>1.044576100598469</v>
       </c>
       <c r="J15">
-        <v>1.015790992389765</v>
+        <v>1.016861329695197</v>
       </c>
       <c r="K15">
-        <v>1.026090052620639</v>
+        <v>1.026842462809247</v>
       </c>
       <c r="L15">
-        <v>1.020603469441425</v>
+        <v>1.021472125503309</v>
       </c>
       <c r="M15">
-        <v>1.031806751230979</v>
+        <v>1.032424309882016</v>
       </c>
       <c r="N15">
-        <v>1.009074419217453</v>
+        <v>1.012021874711393</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035052586328678</v>
+        <v>1.035540697774243</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.029592946727044</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.030141115463863</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019676102204446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9890638064976187</v>
+        <v>0.9899055159193992</v>
       </c>
       <c r="D16">
-        <v>1.013499524502478</v>
+        <v>1.014002480110215</v>
       </c>
       <c r="E16">
-        <v>1.008208908359629</v>
+        <v>1.008875046196391</v>
       </c>
       <c r="F16">
-        <v>1.019413275745393</v>
+        <v>1.019886341808517</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044959926502115</v>
+        <v>1.045214367025374</v>
       </c>
       <c r="J16">
-        <v>1.017639945770983</v>
+        <v>1.018447354135709</v>
       </c>
       <c r="K16">
-        <v>1.027593270000119</v>
+        <v>1.028087486442311</v>
       </c>
       <c r="L16">
-        <v>1.022395266456407</v>
+        <v>1.023049674220839</v>
       </c>
       <c r="M16">
-        <v>1.033404970935821</v>
+        <v>1.033869939613975</v>
       </c>
       <c r="N16">
-        <v>1.009694567154885</v>
+        <v>1.012230183737355</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036276966201808</v>
+        <v>1.036644482944546</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.030658975124246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.031024879490084</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019944318730364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9907908436553216</v>
+        <v>0.9914958390011513</v>
       </c>
       <c r="D17">
-        <v>1.014637965577897</v>
+        <v>1.015006146779814</v>
       </c>
       <c r="E17">
-        <v>1.009422684294369</v>
+        <v>1.009983076428887</v>
       </c>
       <c r="F17">
-        <v>1.020408101186778</v>
+        <v>1.020806056217936</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045366992351165</v>
+        <v>1.045553324139651</v>
       </c>
       <c r="J17">
-        <v>1.018607574735863</v>
+        <v>1.019284788317953</v>
       </c>
       <c r="K17">
-        <v>1.028394115450678</v>
+        <v>1.028756082090581</v>
       </c>
       <c r="L17">
-        <v>1.023267492484349</v>
+        <v>1.023818301387962</v>
       </c>
       <c r="M17">
-        <v>1.034067520537436</v>
+        <v>1.034458856166031</v>
       </c>
       <c r="N17">
-        <v>1.009990445504766</v>
+        <v>1.012337096615584</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.03667119306159</v>
+        <v>1.036980540395112</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.03122781232922</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03150045304457</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020078642705402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9914858681342207</v>
+        <v>0.9921487795205921</v>
       </c>
       <c r="D18">
-        <v>1.015077872943733</v>
+        <v>1.015401027501479</v>
       </c>
       <c r="E18">
-        <v>1.009722244457561</v>
+        <v>1.010253839517499</v>
       </c>
       <c r="F18">
-        <v>1.020425424375879</v>
+        <v>1.020803123737281</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045489945341332</v>
+        <v>1.045653525583143</v>
       </c>
       <c r="J18">
-        <v>1.018874433311069</v>
+        <v>1.01951171337283</v>
       </c>
       <c r="K18">
-        <v>1.028641320979697</v>
+        <v>1.028959111018203</v>
       </c>
       <c r="L18">
-        <v>1.023375243312933</v>
+        <v>1.023897894905557</v>
       </c>
       <c r="M18">
-        <v>1.033900662491173</v>
+        <v>1.034272176476858</v>
       </c>
       <c r="N18">
-        <v>1.010018591245194</v>
+        <v>1.012314914809284</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.036300667479977</v>
+        <v>1.036594407609331</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.031390881946046</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.031631154404725</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020099785519827</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9912538216344011</v>
+        <v>0.9919517852047485</v>
       </c>
       <c r="D19">
-        <v>1.014898758369438</v>
+        <v>1.015252872050759</v>
       </c>
       <c r="E19">
-        <v>1.009189754690704</v>
+        <v>1.009755080078212</v>
       </c>
       <c r="F19">
-        <v>1.019541070339131</v>
+        <v>1.019943165374584</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045365076640861</v>
+        <v>1.045544339559188</v>
       </c>
       <c r="J19">
-        <v>1.018514784158149</v>
+        <v>1.01918590291689</v>
       </c>
       <c r="K19">
-        <v>1.028401990063321</v>
+        <v>1.028750254285959</v>
       </c>
       <c r="L19">
-        <v>1.022788021412059</v>
+        <v>1.023343874315897</v>
       </c>
       <c r="M19">
-        <v>1.032968032117941</v>
+        <v>1.033363563001564</v>
       </c>
       <c r="N19">
-        <v>1.009815319425759</v>
+        <v>1.012162403566232</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.035236128713208</v>
+        <v>1.03554896109149</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03122810383879</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.031490547758466</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020022065746587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9884124788805764</v>
+        <v>0.9893595327411254</v>
       </c>
       <c r="D20">
-        <v>1.012964347287102</v>
+        <v>1.013560354749288</v>
       </c>
       <c r="E20">
-        <v>1.006342903183946</v>
+        <v>1.007116996408108</v>
       </c>
       <c r="F20">
-        <v>1.016206440604335</v>
+        <v>1.016758410248232</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044538307580171</v>
+        <v>1.04483990860686</v>
       </c>
       <c r="J20">
-        <v>1.016397505302717</v>
+        <v>1.017306879464089</v>
       </c>
       <c r="K20">
-        <v>1.026783001510541</v>
+        <v>1.02736888011089</v>
       </c>
       <c r="L20">
-        <v>1.020275129741661</v>
+        <v>1.021035845857423</v>
       </c>
       <c r="M20">
-        <v>1.029970182072843</v>
+        <v>1.030512847759607</v>
       </c>
       <c r="N20">
-        <v>1.008957838854594</v>
+        <v>1.011631491098134</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.032332927259547</v>
+        <v>1.032762393960798</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.030087359216567</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.030518205715642</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019662804797012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.982444461303007</v>
+        <v>0.9839581322491163</v>
       </c>
       <c r="D21">
-        <v>1.008991932976103</v>
+        <v>1.010122036849834</v>
       </c>
       <c r="E21">
-        <v>1.00160991708236</v>
+        <v>1.002844096967237</v>
       </c>
       <c r="F21">
-        <v>1.011741552878818</v>
+        <v>1.012622963453175</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043011492258471</v>
+        <v>1.043582708535439</v>
       </c>
       <c r="J21">
-        <v>1.012694961950111</v>
+        <v>1.01414221320745</v>
       </c>
       <c r="K21">
-        <v>1.023804929698814</v>
+        <v>1.024914148528089</v>
       </c>
       <c r="L21">
-        <v>1.016560853147684</v>
+        <v>1.017771786653091</v>
       </c>
       <c r="M21">
-        <v>1.026503840823984</v>
+        <v>1.02736907224304</v>
       </c>
       <c r="N21">
-        <v>1.007665026199773</v>
+        <v>1.01119641929619</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.029548317983064</v>
+        <v>1.030233100916605</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.027984989025218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.028786204978658</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01912227100101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9786415776173311</v>
+        <v>0.9805182873604835</v>
       </c>
       <c r="D22">
-        <v>1.006461745122276</v>
+        <v>1.007933498747994</v>
       </c>
       <c r="E22">
-        <v>0.9986342585819311</v>
+        <v>1.000163627574155</v>
       </c>
       <c r="F22">
-        <v>1.008977251908618</v>
+        <v>1.010070460534841</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042026209996305</v>
+        <v>1.042769581873065</v>
       </c>
       <c r="J22">
-        <v>1.010348703765722</v>
+        <v>1.012138023079577</v>
       </c>
       <c r="K22">
-        <v>1.021906271300651</v>
+        <v>1.023349412940839</v>
       </c>
       <c r="L22">
-        <v>1.014232819714788</v>
+        <v>1.015731843667136</v>
       </c>
       <c r="M22">
-        <v>1.024372941055713</v>
+        <v>1.025445025035665</v>
       </c>
       <c r="N22">
-        <v>1.006848150045164</v>
+        <v>1.010917807874161</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.027861825486367</v>
+        <v>1.028710322779607</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.026628905387371</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.027664941040749</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018776611613418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9806558479120138</v>
+        <v>0.9823228654973523</v>
       </c>
       <c r="D23">
-        <v>1.00779663885201</v>
+        <v>1.009074809829936</v>
       </c>
       <c r="E23">
-        <v>1.000208008865188</v>
+        <v>1.0015662132228</v>
       </c>
       <c r="F23">
-        <v>1.010440786008552</v>
+        <v>1.011411178946662</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042546125254064</v>
+        <v>1.043191964464441</v>
       </c>
       <c r="J23">
-        <v>1.011587928476748</v>
+        <v>1.013179708711326</v>
       </c>
       <c r="K23">
-        <v>1.02290593838988</v>
+        <v>1.024159913549731</v>
       </c>
       <c r="L23">
-        <v>1.015462630204119</v>
+        <v>1.016794613103479</v>
       </c>
       <c r="M23">
-        <v>1.025500120150219</v>
+        <v>1.026452261543015</v>
       </c>
       <c r="N23">
-        <v>1.007276068656349</v>
+        <v>1.011015715739798</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.028753927596212</v>
+        <v>1.029507495806423</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.027325994295127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.028227335268004</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018952832707748</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9884048859064333</v>
+        <v>0.9893555457445078</v>
       </c>
       <c r="D24">
-        <v>1.012947754732734</v>
+        <v>1.01354621466294</v>
       </c>
       <c r="E24">
-        <v>1.006284721445874</v>
+        <v>1.007062826869578</v>
       </c>
       <c r="F24">
-        <v>1.016100962032969</v>
+        <v>1.016655876618576</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044521656690693</v>
+        <v>1.044824503648012</v>
       </c>
       <c r="J24">
-        <v>1.016356703844565</v>
+        <v>1.017269593177817</v>
       </c>
       <c r="K24">
-        <v>1.026751245569284</v>
+        <v>1.027339547624818</v>
       </c>
       <c r="L24">
-        <v>1.020202361964447</v>
+        <v>1.020967036310575</v>
       </c>
       <c r="M24">
-        <v>1.029851105917959</v>
+        <v>1.030396676443628</v>
       </c>
       <c r="N24">
-        <v>1.008928535016494</v>
+        <v>1.011607217952241</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.032197489894478</v>
+        <v>1.03262927730263</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.030037286480637</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.030467182514111</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019649292163509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9970161778412497</v>
+        <v>0.9974148653452364</v>
       </c>
       <c r="D25">
-        <v>1.018684262790694</v>
+        <v>1.018697866790157</v>
       </c>
       <c r="E25">
-        <v>1.013075391113417</v>
+        <v>1.013415883064511</v>
       </c>
       <c r="F25">
-        <v>1.022451160259805</v>
+        <v>1.022693497868216</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04665309927182</v>
+        <v>1.046659995709215</v>
       </c>
       <c r="J25">
-        <v>1.021644378460617</v>
+        <v>1.022029543889834</v>
       </c>
       <c r="K25">
-        <v>1.030999291852947</v>
+        <v>1.03101269440305</v>
       </c>
       <c r="L25">
-        <v>1.025474063587269</v>
+        <v>1.025809444289561</v>
       </c>
       <c r="M25">
-        <v>1.034710668683081</v>
+        <v>1.034949452230496</v>
       </c>
       <c r="N25">
-        <v>1.010760142446095</v>
+        <v>1.012860226993502</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.036043542450648</v>
+        <v>1.036232524771247</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03303802600171</v>
+        <v>1.033061106596521</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020461054343256</v>
       </c>
     </row>
   </sheetData>
